--- a/documentos/outros-documentos/Sprint-3/planejamento-sprint3.xlsx
+++ b/documentos/outros-documentos/Sprint-3/planejamento-sprint3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -63,22 +63,10 @@
     <t>Realizar testes</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:... ID:... – Mural de Serviços</t>
-  </si>
-  <si>
-    <t>Criar tela muralDeServicos</t>
-  </si>
-  <si>
-    <t>Com lista de serviços por categoria, botões Publicar no Mural e Minhas Publicações</t>
-  </si>
-  <si>
     <t>Criar controlador MuralDeServicosBean</t>
   </si>
   <si>
     <t>Criar classe de conexao com banco MuralDeServicosDAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com métodos listarServicosPorCategoria, publicarNoMural e listarPublicacoesUsuario </t>
   </si>
   <si>
     <t>De funcionalidade.</t>
@@ -91,9 +79,6 @@
   </si>
   <si>
     <t>Com atributos id, idUsuario, titulo, categoria, descricao. As anotaões servirão para criar as dependências entre objetos e a tabela no banco com os campos necessários.</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:... ID:... – Contato Usuário</t>
   </si>
   <si>
     <t>Refatorar parte Diagrama de classes Contato</t>
@@ -118,6 +103,24 @@
   </si>
   <si>
     <t>31/04/2016</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:2 ID:11 – Contatar Profissional</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:2 ID:11 – Publicar no Mural</t>
+  </si>
+  <si>
+    <t>Criar tela publicarNoMural</t>
+  </si>
+  <si>
+    <t>Com campos obrigatórios título, descricao e categoria que será uma lista das categoria do sistema. E o campo contato não obrigatório</t>
+  </si>
+  <si>
+    <t>Com método publicarNoMural passando por parametro o id da categoria selecionada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com método publicarNoMural passando por parametro o id da categoria selecionada. </t>
   </si>
 </sst>
 </file>
@@ -842,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -862,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="15" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -974,12 +977,12 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:1025" s="3" customFormat="1" ht="39" thickBot="1">
+    <row r="4" spans="1:1025" s="3" customFormat="1" ht="77.25" thickBot="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
@@ -994,7 +997,7 @@
         <v>42513</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="14"/>
@@ -1021,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
@@ -1036,7 +1039,7 @@
         <v>42514</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1063,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11">
         <v>42515</v>
@@ -1078,7 +1081,7 @@
         <v>42515</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1105,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
@@ -1120,7 +1123,7 @@
         <v>42515</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1162,7 +1165,7 @@
         <v>42516</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="11" spans="1:1025" s="28" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -3329,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E13" s="11">
         <v>42517</v>
@@ -4368,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
@@ -4383,7 +4386,7 @@
         <v>42518</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="24"/>
@@ -5409,7 +5412,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
@@ -5424,7 +5427,7 @@
         <v>42490</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="24"/>
@@ -6450,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
@@ -6459,13 +6462,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="24"/>
@@ -7506,7 +7509,7 @@
         <v>42491</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="24"/>

--- a/documentos/outros-documentos/Sprint-3/planejamento-sprint3.xlsx
+++ b/documentos/outros-documentos/Sprint-3/planejamento-sprint3.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -19,123 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>SPRINT 3</t>
+    <t>SPRINT 3:</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:1 ID:4 – Alterar Senha</t>
+    <t>DATA INICIO: 02/06/16</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:8 ID:39 – Fotos de Usuario</t>
+    <t>DATA FIM: 23/06/16</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:8 ID:40 – Fotos de Divulgação de Trabalho</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Fotos dos Usuários</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:4 ID:29 – Localizar Usuário (CLIENTE)</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Fotos de Divulgação de Trabalhos</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:9 – Filtrar Profissional</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Alterar Senha</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Publicar no Mural</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Avaliar Profissional</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Localizar Profissional</t>
   </si>
   <si>
-    <t>Tarefa</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Listar Minhas Publicações</t>
   </si>
   <si>
-    <t>Responsável</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Excluir Publicação</t>
   </si>
   <si>
-    <t>Esforço</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Exlcuir Mensagem</t>
   </si>
   <si>
-    <t>Data início</t>
+    <t>Estória de Usuário: CH:2 ID:11 – CRUD Categorias</t>
   </si>
   <si>
-    <t>Data Fim</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Publicar Trabalhos</t>
   </si>
   <si>
-    <t>Observação</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Excluir Trabalhos</t>
   </si>
   <si>
-    <t>Dependência</t>
-  </si>
-  <si>
-    <t>Incrementar Diagrama de Classes</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>Criar tela publicarNoMural</t>
-  </si>
-  <si>
-    <t>2 horas</t>
-  </si>
-  <si>
-    <t>Com campos obrigatórios título, descricao e categoria que será uma lista das categoria do sistema. E o campo contato não obrigatório</t>
-  </si>
-  <si>
-    <t>Criar controlador MuralDeServicosBean</t>
-  </si>
-  <si>
-    <t>Com método publicarNoMural passando por parametro o id da categoria selecionada.</t>
-  </si>
-  <si>
-    <t>Criar modelo MuralDeServicos com anotações</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>Com atributos id, idUsuario, titulo, categoria, descricao. As anotaões servirão para criar as dependências entre objetos e a tabela no banco com os campos necessários.</t>
-  </si>
-  <si>
-    <t>Criar classe de conexao com banco MuralDeServicosDAO</t>
-  </si>
-  <si>
-    <t>Com método publicarNoMural passando por parametro o id da categoria selecionada.</t>
-  </si>
-  <si>
-    <t>Realizar testes</t>
-  </si>
-  <si>
-    <t>De funcionalidade.</t>
-  </si>
-  <si>
-    <t>Realizar integração</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:2 ID:12 – Contatar Profissional</t>
-  </si>
-  <si>
-    <t>Refatorar parte Diagrama de classes Contato</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>Criar tela contatar</t>
-  </si>
-  <si>
-    <t>Conterá os campos a serem preenchidos obrigatoriamente assunto, descrição e o campo contato não obrigatório.</t>
-  </si>
-  <si>
-    <t>Criar método contatar() no controlador UsuarioBean</t>
-  </si>
-  <si>
-    <t>O método deve receber por parâmetro o id do usuário a ser contatado.</t>
-  </si>
-  <si>
-    <t>Criar método contatar() na classe de conexão com o banco UsuarioDAO</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Versão Mobile do Site</t>
   </si>
 </sst>
 </file>
@@ -145,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +148,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -339,9 +276,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,9 +314,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,6 +350,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,55 +753,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK35"/>
+  <dimension ref="A1:AMK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="2"/>
-    <col min="2" max="2" width="55.75" style="2"/>
-    <col min="3" max="3" width="15.75" style="2"/>
-    <col min="4" max="4" width="12.625" style="3"/>
-    <col min="5" max="5" width="12.875" style="2"/>
-    <col min="6" max="6" width="9.375" style="2"/>
-    <col min="7" max="7" width="23" style="4"/>
-    <col min="8" max="8" width="17.375" style="2"/>
-    <col min="9" max="14" width="9.375" style="2"/>
-    <col min="15" max="1025" width="7.875" style="2"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.75" style="1"/>
+    <col min="3" max="3" width="15.75" style="1"/>
+    <col min="4" max="4" width="12.625" style="2"/>
+    <col min="5" max="5" width="12.875" style="1"/>
+    <col min="6" max="6" width="9.375" style="1"/>
+    <col min="7" max="7" width="23" style="3"/>
+    <col min="8" max="8" width="17.375" style="1"/>
+    <col min="9" max="14" width="9.375" style="1"/>
+    <col min="15" max="1025" width="7.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="10"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -1864,33 +1801,35 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="10"/>
+    <row r="2" spans="1:1024" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -2890,35 +2829,35 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:1024" ht="15" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
@@ -3918,33 +3857,33 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="10"/>
+    <row r="4" spans="1:1024" ht="15" thickBot="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
@@ -4945,34 +4884,34 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="29" t="s">
+        <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
@@ -5973,32 +5912,32 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
@@ -6999,34 +6938,34 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
+      <c r="A7" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="10"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
@@ -8027,32 +7966,32 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="10"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -9053,34 +8992,34 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" s="29" t="s">
+        <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="10"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
@@ -10081,32 +10020,32 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="10"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9"/>
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
@@ -11107,34 +11046,34 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="29" t="s">
+        <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="10"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
@@ -12134,33 +12073,33 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="15" thickBot="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="10"/>
+    <row r="12" spans="1:1024">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
@@ -13160,1105 +13099,1091 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="30" customFormat="1" ht="15" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+    <row r="13" spans="1:1024" ht="15" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
+      <c r="FT13"/>
+      <c r="FU13"/>
+      <c r="FV13"/>
+      <c r="FW13"/>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
+      <c r="GB13"/>
+      <c r="GC13"/>
+      <c r="GD13"/>
+      <c r="GE13"/>
+      <c r="GF13"/>
+      <c r="GG13"/>
+      <c r="GH13"/>
+      <c r="GI13"/>
+      <c r="GJ13"/>
+      <c r="GK13"/>
+      <c r="GL13"/>
+      <c r="GM13"/>
+      <c r="GN13"/>
+      <c r="GO13"/>
+      <c r="GP13"/>
+      <c r="GQ13"/>
+      <c r="GR13"/>
+      <c r="GS13"/>
+      <c r="GT13"/>
+      <c r="GU13"/>
+      <c r="GV13"/>
+      <c r="GW13"/>
+      <c r="GX13"/>
+      <c r="GY13"/>
+      <c r="GZ13"/>
+      <c r="HA13"/>
+      <c r="HB13"/>
+      <c r="HC13"/>
+      <c r="HD13"/>
+      <c r="HE13"/>
+      <c r="HF13"/>
+      <c r="HG13"/>
+      <c r="HH13"/>
+      <c r="HI13"/>
+      <c r="HJ13"/>
+      <c r="HK13"/>
+      <c r="HL13"/>
+      <c r="HM13"/>
+      <c r="HN13"/>
+      <c r="HO13"/>
+      <c r="HP13"/>
+      <c r="HQ13"/>
+      <c r="HR13"/>
+      <c r="HS13"/>
+      <c r="HT13"/>
+      <c r="HU13"/>
+      <c r="HV13"/>
+      <c r="HW13"/>
+      <c r="HX13"/>
+      <c r="HY13"/>
+      <c r="HZ13"/>
+      <c r="IA13"/>
+      <c r="IB13"/>
+      <c r="IC13"/>
+      <c r="ID13"/>
+      <c r="IE13"/>
+      <c r="IF13"/>
+      <c r="IG13"/>
+      <c r="IH13"/>
+      <c r="II13"/>
+      <c r="IJ13"/>
+      <c r="IK13"/>
+      <c r="IL13"/>
+      <c r="IM13"/>
+      <c r="IN13"/>
+      <c r="IO13"/>
+      <c r="IP13"/>
+      <c r="IQ13"/>
+      <c r="IR13"/>
+      <c r="IS13"/>
+      <c r="IT13"/>
+      <c r="IU13"/>
+      <c r="IV13"/>
+      <c r="IW13"/>
+      <c r="IX13"/>
+      <c r="IY13"/>
+      <c r="IZ13"/>
+      <c r="JA13"/>
+      <c r="JB13"/>
+      <c r="JC13"/>
+      <c r="JD13"/>
+      <c r="JE13"/>
+      <c r="JF13"/>
+      <c r="JG13"/>
+      <c r="JH13"/>
+      <c r="JI13"/>
+      <c r="JJ13"/>
+      <c r="JK13"/>
+      <c r="JL13"/>
+      <c r="JM13"/>
+      <c r="JN13"/>
+      <c r="JO13"/>
+      <c r="JP13"/>
+      <c r="JQ13"/>
+      <c r="JR13"/>
+      <c r="JS13"/>
+      <c r="JT13"/>
+      <c r="JU13"/>
+      <c r="JV13"/>
+      <c r="JW13"/>
+      <c r="JX13"/>
+      <c r="JY13"/>
+      <c r="JZ13"/>
+      <c r="KA13"/>
+      <c r="KB13"/>
+      <c r="KC13"/>
+      <c r="KD13"/>
+      <c r="KE13"/>
+      <c r="KF13"/>
+      <c r="KG13"/>
+      <c r="KH13"/>
+      <c r="KI13"/>
+      <c r="KJ13"/>
+      <c r="KK13"/>
+      <c r="KL13"/>
+      <c r="KM13"/>
+      <c r="KN13"/>
+      <c r="KO13"/>
+      <c r="KP13"/>
+      <c r="KQ13"/>
+      <c r="KR13"/>
+      <c r="KS13"/>
+      <c r="KT13"/>
+      <c r="KU13"/>
+      <c r="KV13"/>
+      <c r="KW13"/>
+      <c r="KX13"/>
+      <c r="KY13"/>
+      <c r="KZ13"/>
+      <c r="LA13"/>
+      <c r="LB13"/>
+      <c r="LC13"/>
+      <c r="LD13"/>
+      <c r="LE13"/>
+      <c r="LF13"/>
+      <c r="LG13"/>
+      <c r="LH13"/>
+      <c r="LI13"/>
+      <c r="LJ13"/>
+      <c r="LK13"/>
+      <c r="LL13"/>
+      <c r="LM13"/>
+      <c r="LN13"/>
+      <c r="LO13"/>
+      <c r="LP13"/>
+      <c r="LQ13"/>
+      <c r="LR13"/>
+      <c r="LS13"/>
+      <c r="LT13"/>
+      <c r="LU13"/>
+      <c r="LV13"/>
+      <c r="LW13"/>
+      <c r="LX13"/>
+      <c r="LY13"/>
+      <c r="LZ13"/>
+      <c r="MA13"/>
+      <c r="MB13"/>
+      <c r="MC13"/>
+      <c r="MD13"/>
+      <c r="ME13"/>
+      <c r="MF13"/>
+      <c r="MG13"/>
+      <c r="MH13"/>
+      <c r="MI13"/>
+      <c r="MJ13"/>
+      <c r="MK13"/>
+      <c r="ML13"/>
+      <c r="MM13"/>
+      <c r="MN13"/>
+      <c r="MO13"/>
+      <c r="MP13"/>
+      <c r="MQ13"/>
+      <c r="MR13"/>
+      <c r="MS13"/>
+      <c r="MT13"/>
+      <c r="MU13"/>
+      <c r="MV13"/>
+      <c r="MW13"/>
+      <c r="MX13"/>
+      <c r="MY13"/>
+      <c r="MZ13"/>
+      <c r="NA13"/>
+      <c r="NB13"/>
+      <c r="NC13"/>
+      <c r="ND13"/>
+      <c r="NE13"/>
+      <c r="NF13"/>
+      <c r="NG13"/>
+      <c r="NH13"/>
+      <c r="NI13"/>
+      <c r="NJ13"/>
+      <c r="NK13"/>
+      <c r="NL13"/>
+      <c r="NM13"/>
+      <c r="NN13"/>
+      <c r="NO13"/>
+      <c r="NP13"/>
+      <c r="NQ13"/>
+      <c r="NR13"/>
+      <c r="NS13"/>
+      <c r="NT13"/>
+      <c r="NU13"/>
+      <c r="NV13"/>
+      <c r="NW13"/>
+      <c r="NX13"/>
+      <c r="NY13"/>
+      <c r="NZ13"/>
+      <c r="OA13"/>
+      <c r="OB13"/>
+      <c r="OC13"/>
+      <c r="OD13"/>
+      <c r="OE13"/>
+      <c r="OF13"/>
+      <c r="OG13"/>
+      <c r="OH13"/>
+      <c r="OI13"/>
+      <c r="OJ13"/>
+      <c r="OK13"/>
+      <c r="OL13"/>
+      <c r="OM13"/>
+      <c r="ON13"/>
+      <c r="OO13"/>
+      <c r="OP13"/>
+      <c r="OQ13"/>
+      <c r="OR13"/>
+      <c r="OS13"/>
+      <c r="OT13"/>
+      <c r="OU13"/>
+      <c r="OV13"/>
+      <c r="OW13"/>
+      <c r="OX13"/>
+      <c r="OY13"/>
+      <c r="OZ13"/>
+      <c r="PA13"/>
+      <c r="PB13"/>
+      <c r="PC13"/>
+      <c r="PD13"/>
+      <c r="PE13"/>
+      <c r="PF13"/>
+      <c r="PG13"/>
+      <c r="PH13"/>
+      <c r="PI13"/>
+      <c r="PJ13"/>
+      <c r="PK13"/>
+      <c r="PL13"/>
+      <c r="PM13"/>
+      <c r="PN13"/>
+      <c r="PO13"/>
+      <c r="PP13"/>
+      <c r="PQ13"/>
+      <c r="PR13"/>
+      <c r="PS13"/>
+      <c r="PT13"/>
+      <c r="PU13"/>
+      <c r="PV13"/>
+      <c r="PW13"/>
+      <c r="PX13"/>
+      <c r="PY13"/>
+      <c r="PZ13"/>
+      <c r="QA13"/>
+      <c r="QB13"/>
+      <c r="QC13"/>
+      <c r="QD13"/>
+      <c r="QE13"/>
+      <c r="QF13"/>
+      <c r="QG13"/>
+      <c r="QH13"/>
+      <c r="QI13"/>
+      <c r="QJ13"/>
+      <c r="QK13"/>
+      <c r="QL13"/>
+      <c r="QM13"/>
+      <c r="QN13"/>
+      <c r="QO13"/>
+      <c r="QP13"/>
+      <c r="QQ13"/>
+      <c r="QR13"/>
+      <c r="QS13"/>
+      <c r="QT13"/>
+      <c r="QU13"/>
+      <c r="QV13"/>
+      <c r="QW13"/>
+      <c r="QX13"/>
+      <c r="QY13"/>
+      <c r="QZ13"/>
+      <c r="RA13"/>
+      <c r="RB13"/>
+      <c r="RC13"/>
+      <c r="RD13"/>
+      <c r="RE13"/>
+      <c r="RF13"/>
+      <c r="RG13"/>
+      <c r="RH13"/>
+      <c r="RI13"/>
+      <c r="RJ13"/>
+      <c r="RK13"/>
+      <c r="RL13"/>
+      <c r="RM13"/>
+      <c r="RN13"/>
+      <c r="RO13"/>
+      <c r="RP13"/>
+      <c r="RQ13"/>
+      <c r="RR13"/>
+      <c r="RS13"/>
+      <c r="RT13"/>
+      <c r="RU13"/>
+      <c r="RV13"/>
+      <c r="RW13"/>
+      <c r="RX13"/>
+      <c r="RY13"/>
+      <c r="RZ13"/>
+      <c r="SA13"/>
+      <c r="SB13"/>
+      <c r="SC13"/>
+      <c r="SD13"/>
+      <c r="SE13"/>
+      <c r="SF13"/>
+      <c r="SG13"/>
+      <c r="SH13"/>
+      <c r="SI13"/>
+      <c r="SJ13"/>
+      <c r="SK13"/>
+      <c r="SL13"/>
+      <c r="SM13"/>
+      <c r="SN13"/>
+      <c r="SO13"/>
+      <c r="SP13"/>
+      <c r="SQ13"/>
+      <c r="SR13"/>
+      <c r="SS13"/>
+      <c r="ST13"/>
+      <c r="SU13"/>
+      <c r="SV13"/>
+      <c r="SW13"/>
+      <c r="SX13"/>
+      <c r="SY13"/>
+      <c r="SZ13"/>
+      <c r="TA13"/>
+      <c r="TB13"/>
+      <c r="TC13"/>
+      <c r="TD13"/>
+      <c r="TE13"/>
+      <c r="TF13"/>
+      <c r="TG13"/>
+      <c r="TH13"/>
+      <c r="TI13"/>
+      <c r="TJ13"/>
+      <c r="TK13"/>
+      <c r="TL13"/>
+      <c r="TM13"/>
+      <c r="TN13"/>
+      <c r="TO13"/>
+      <c r="TP13"/>
+      <c r="TQ13"/>
+      <c r="TR13"/>
+      <c r="TS13"/>
+      <c r="TT13"/>
+      <c r="TU13"/>
+      <c r="TV13"/>
+      <c r="TW13"/>
+      <c r="TX13"/>
+      <c r="TY13"/>
+      <c r="TZ13"/>
+      <c r="UA13"/>
+      <c r="UB13"/>
+      <c r="UC13"/>
+      <c r="UD13"/>
+      <c r="UE13"/>
+      <c r="UF13"/>
+      <c r="UG13"/>
+      <c r="UH13"/>
+      <c r="UI13"/>
+      <c r="UJ13"/>
+      <c r="UK13"/>
+      <c r="UL13"/>
+      <c r="UM13"/>
+      <c r="UN13"/>
+      <c r="UO13"/>
+      <c r="UP13"/>
+      <c r="UQ13"/>
+      <c r="UR13"/>
+      <c r="US13"/>
+      <c r="UT13"/>
+      <c r="UU13"/>
+      <c r="UV13"/>
+      <c r="UW13"/>
+      <c r="UX13"/>
+      <c r="UY13"/>
+      <c r="UZ13"/>
+      <c r="VA13"/>
+      <c r="VB13"/>
+      <c r="VC13"/>
+      <c r="VD13"/>
+      <c r="VE13"/>
+      <c r="VF13"/>
+      <c r="VG13"/>
+      <c r="VH13"/>
+      <c r="VI13"/>
+      <c r="VJ13"/>
+      <c r="VK13"/>
+      <c r="VL13"/>
+      <c r="VM13"/>
+      <c r="VN13"/>
+      <c r="VO13"/>
+      <c r="VP13"/>
+      <c r="VQ13"/>
+      <c r="VR13"/>
+      <c r="VS13"/>
+      <c r="VT13"/>
+      <c r="VU13"/>
+      <c r="VV13"/>
+      <c r="VW13"/>
+      <c r="VX13"/>
+      <c r="VY13"/>
+      <c r="VZ13"/>
+      <c r="WA13"/>
+      <c r="WB13"/>
+      <c r="WC13"/>
+      <c r="WD13"/>
+      <c r="WE13"/>
+      <c r="WF13"/>
+      <c r="WG13"/>
+      <c r="WH13"/>
+      <c r="WI13"/>
+      <c r="WJ13"/>
+      <c r="WK13"/>
+      <c r="WL13"/>
+      <c r="WM13"/>
+      <c r="WN13"/>
+      <c r="WO13"/>
+      <c r="WP13"/>
+      <c r="WQ13"/>
+      <c r="WR13"/>
+      <c r="WS13"/>
+      <c r="WT13"/>
+      <c r="WU13"/>
+      <c r="WV13"/>
+      <c r="WW13"/>
+      <c r="WX13"/>
+      <c r="WY13"/>
+      <c r="WZ13"/>
+      <c r="XA13"/>
+      <c r="XB13"/>
+      <c r="XC13"/>
+      <c r="XD13"/>
+      <c r="XE13"/>
+      <c r="XF13"/>
+      <c r="XG13"/>
+      <c r="XH13"/>
+      <c r="XI13"/>
+      <c r="XJ13"/>
+      <c r="XK13"/>
+      <c r="XL13"/>
+      <c r="XM13"/>
+      <c r="XN13"/>
+      <c r="XO13"/>
+      <c r="XP13"/>
+      <c r="XQ13"/>
+      <c r="XR13"/>
+      <c r="XS13"/>
+      <c r="XT13"/>
+      <c r="XU13"/>
+      <c r="XV13"/>
+      <c r="XW13"/>
+      <c r="XX13"/>
+      <c r="XY13"/>
+      <c r="XZ13"/>
+      <c r="YA13"/>
+      <c r="YB13"/>
+      <c r="YC13"/>
+      <c r="YD13"/>
+      <c r="YE13"/>
+      <c r="YF13"/>
+      <c r="YG13"/>
+      <c r="YH13"/>
+      <c r="YI13"/>
+      <c r="YJ13"/>
+      <c r="YK13"/>
+      <c r="YL13"/>
+      <c r="YM13"/>
+      <c r="YN13"/>
+      <c r="YO13"/>
+      <c r="YP13"/>
+      <c r="YQ13"/>
+      <c r="YR13"/>
+      <c r="YS13"/>
+      <c r="YT13"/>
+      <c r="YU13"/>
+      <c r="YV13"/>
+      <c r="YW13"/>
+      <c r="YX13"/>
+      <c r="YY13"/>
+      <c r="YZ13"/>
+      <c r="ZA13"/>
+      <c r="ZB13"/>
+      <c r="ZC13"/>
+      <c r="ZD13"/>
+      <c r="ZE13"/>
+      <c r="ZF13"/>
+      <c r="ZG13"/>
+      <c r="ZH13"/>
+      <c r="ZI13"/>
+      <c r="ZJ13"/>
+      <c r="ZK13"/>
+      <c r="ZL13"/>
+      <c r="ZM13"/>
+      <c r="ZN13"/>
+      <c r="ZO13"/>
+      <c r="ZP13"/>
+      <c r="ZQ13"/>
+      <c r="ZR13"/>
+      <c r="ZS13"/>
+      <c r="ZT13"/>
+      <c r="ZU13"/>
+      <c r="ZV13"/>
+      <c r="ZW13"/>
+      <c r="ZX13"/>
+      <c r="ZY13"/>
+      <c r="ZZ13"/>
+      <c r="AAA13"/>
+      <c r="AAB13"/>
+      <c r="AAC13"/>
+      <c r="AAD13"/>
+      <c r="AAE13"/>
+      <c r="AAF13"/>
+      <c r="AAG13"/>
+      <c r="AAH13"/>
+      <c r="AAI13"/>
+      <c r="AAJ13"/>
+      <c r="AAK13"/>
+      <c r="AAL13"/>
+      <c r="AAM13"/>
+      <c r="AAN13"/>
+      <c r="AAO13"/>
+      <c r="AAP13"/>
+      <c r="AAQ13"/>
+      <c r="AAR13"/>
+      <c r="AAS13"/>
+      <c r="AAT13"/>
+      <c r="AAU13"/>
+      <c r="AAV13"/>
+      <c r="AAW13"/>
+      <c r="AAX13"/>
+      <c r="AAY13"/>
+      <c r="AAZ13"/>
+      <c r="ABA13"/>
+      <c r="ABB13"/>
+      <c r="ABC13"/>
+      <c r="ABD13"/>
+      <c r="ABE13"/>
+      <c r="ABF13"/>
+      <c r="ABG13"/>
+      <c r="ABH13"/>
+      <c r="ABI13"/>
+      <c r="ABJ13"/>
+      <c r="ABK13"/>
+      <c r="ABL13"/>
+      <c r="ABM13"/>
+      <c r="ABN13"/>
+      <c r="ABO13"/>
+      <c r="ABP13"/>
+      <c r="ABQ13"/>
+      <c r="ABR13"/>
+      <c r="ABS13"/>
+      <c r="ABT13"/>
+      <c r="ABU13"/>
+      <c r="ABV13"/>
+      <c r="ABW13"/>
+      <c r="ABX13"/>
+      <c r="ABY13"/>
+      <c r="ABZ13"/>
+      <c r="ACA13"/>
+      <c r="ACB13"/>
+      <c r="ACC13"/>
+      <c r="ACD13"/>
+      <c r="ACE13"/>
+      <c r="ACF13"/>
+      <c r="ACG13"/>
+      <c r="ACH13"/>
+      <c r="ACI13"/>
+      <c r="ACJ13"/>
+      <c r="ACK13"/>
+      <c r="ACL13"/>
+      <c r="ACM13"/>
+      <c r="ACN13"/>
+      <c r="ACO13"/>
+      <c r="ACP13"/>
+      <c r="ACQ13"/>
+      <c r="ACR13"/>
+      <c r="ACS13"/>
+      <c r="ACT13"/>
+      <c r="ACU13"/>
+      <c r="ACV13"/>
+      <c r="ACW13"/>
+      <c r="ACX13"/>
+      <c r="ACY13"/>
+      <c r="ACZ13"/>
+      <c r="ADA13"/>
+      <c r="ADB13"/>
+      <c r="ADC13"/>
+      <c r="ADD13"/>
+      <c r="ADE13"/>
+      <c r="ADF13"/>
+      <c r="ADG13"/>
+      <c r="ADH13"/>
+      <c r="ADI13"/>
+      <c r="ADJ13"/>
+      <c r="ADK13"/>
+      <c r="ADL13"/>
+      <c r="ADM13"/>
+      <c r="ADN13"/>
+      <c r="ADO13"/>
+      <c r="ADP13"/>
+      <c r="ADQ13"/>
+      <c r="ADR13"/>
+      <c r="ADS13"/>
+      <c r="ADT13"/>
+      <c r="ADU13"/>
+      <c r="ADV13"/>
+      <c r="ADW13"/>
+      <c r="ADX13"/>
+      <c r="ADY13"/>
+      <c r="ADZ13"/>
+      <c r="AEA13"/>
+      <c r="AEB13"/>
+      <c r="AEC13"/>
+      <c r="AED13"/>
+      <c r="AEE13"/>
+      <c r="AEF13"/>
+      <c r="AEG13"/>
+      <c r="AEH13"/>
+      <c r="AEI13"/>
+      <c r="AEJ13"/>
+      <c r="AEK13"/>
+      <c r="AEL13"/>
+      <c r="AEM13"/>
+      <c r="AEN13"/>
+      <c r="AEO13"/>
+      <c r="AEP13"/>
+      <c r="AEQ13"/>
+      <c r="AER13"/>
+      <c r="AES13"/>
+      <c r="AET13"/>
+      <c r="AEU13"/>
+      <c r="AEV13"/>
+      <c r="AEW13"/>
+      <c r="AEX13"/>
+      <c r="AEY13"/>
+      <c r="AEZ13"/>
+      <c r="AFA13"/>
+      <c r="AFB13"/>
+      <c r="AFC13"/>
+      <c r="AFD13"/>
+      <c r="AFE13"/>
+      <c r="AFF13"/>
+      <c r="AFG13"/>
+      <c r="AFH13"/>
+      <c r="AFI13"/>
+      <c r="AFJ13"/>
+      <c r="AFK13"/>
+      <c r="AFL13"/>
+      <c r="AFM13"/>
+      <c r="AFN13"/>
+      <c r="AFO13"/>
+      <c r="AFP13"/>
+      <c r="AFQ13"/>
+      <c r="AFR13"/>
+      <c r="AFS13"/>
+      <c r="AFT13"/>
+      <c r="AFU13"/>
+      <c r="AFV13"/>
+      <c r="AFW13"/>
+      <c r="AFX13"/>
+      <c r="AFY13"/>
+      <c r="AFZ13"/>
+      <c r="AGA13"/>
+      <c r="AGB13"/>
+      <c r="AGC13"/>
+      <c r="AGD13"/>
+      <c r="AGE13"/>
+      <c r="AGF13"/>
+      <c r="AGG13"/>
+      <c r="AGH13"/>
+      <c r="AGI13"/>
+      <c r="AGJ13"/>
+      <c r="AGK13"/>
+      <c r="AGL13"/>
+      <c r="AGM13"/>
+      <c r="AGN13"/>
+      <c r="AGO13"/>
+      <c r="AGP13"/>
+      <c r="AGQ13"/>
+      <c r="AGR13"/>
+      <c r="AGS13"/>
+      <c r="AGT13"/>
+      <c r="AGU13"/>
+      <c r="AGV13"/>
+      <c r="AGW13"/>
+      <c r="AGX13"/>
+      <c r="AGY13"/>
+      <c r="AGZ13"/>
+      <c r="AHA13"/>
+      <c r="AHB13"/>
+      <c r="AHC13"/>
+      <c r="AHD13"/>
+      <c r="AHE13"/>
+      <c r="AHF13"/>
+      <c r="AHG13"/>
+      <c r="AHH13"/>
+      <c r="AHI13"/>
+      <c r="AHJ13"/>
+      <c r="AHK13"/>
+      <c r="AHL13"/>
+      <c r="AHM13"/>
+      <c r="AHN13"/>
+      <c r="AHO13"/>
+      <c r="AHP13"/>
+      <c r="AHQ13"/>
+      <c r="AHR13"/>
+      <c r="AHS13"/>
+      <c r="AHT13"/>
+      <c r="AHU13"/>
+      <c r="AHV13"/>
+      <c r="AHW13"/>
+      <c r="AHX13"/>
+      <c r="AHY13"/>
+      <c r="AHZ13"/>
+      <c r="AIA13"/>
+      <c r="AIB13"/>
+      <c r="AIC13"/>
+      <c r="AID13"/>
+      <c r="AIE13"/>
+      <c r="AIF13"/>
+      <c r="AIG13"/>
+      <c r="AIH13"/>
+      <c r="AII13"/>
+      <c r="AIJ13"/>
+      <c r="AIK13"/>
+      <c r="AIL13"/>
+      <c r="AIM13"/>
+      <c r="AIN13"/>
+      <c r="AIO13"/>
+      <c r="AIP13"/>
+      <c r="AIQ13"/>
+      <c r="AIR13"/>
+      <c r="AIS13"/>
+      <c r="AIT13"/>
+      <c r="AIU13"/>
+      <c r="AIV13"/>
+      <c r="AIW13"/>
+      <c r="AIX13"/>
+      <c r="AIY13"/>
+      <c r="AIZ13"/>
+      <c r="AJA13"/>
+      <c r="AJB13"/>
+      <c r="AJC13"/>
+      <c r="AJD13"/>
+      <c r="AJE13"/>
+      <c r="AJF13"/>
+      <c r="AJG13"/>
+      <c r="AJH13"/>
+      <c r="AJI13"/>
+      <c r="AJJ13"/>
+      <c r="AJK13"/>
+      <c r="AJL13"/>
+      <c r="AJM13"/>
+      <c r="AJN13"/>
+      <c r="AJO13"/>
+      <c r="AJP13"/>
+      <c r="AJQ13"/>
+      <c r="AJR13"/>
+      <c r="AJS13"/>
+      <c r="AJT13"/>
+      <c r="AJU13"/>
+      <c r="AJV13"/>
+      <c r="AJW13"/>
+      <c r="AJX13"/>
+      <c r="AJY13"/>
+      <c r="AJZ13"/>
+      <c r="AKA13"/>
+      <c r="AKB13"/>
+      <c r="AKC13"/>
+      <c r="AKD13"/>
+      <c r="AKE13"/>
+      <c r="AKF13"/>
+      <c r="AKG13"/>
+      <c r="AKH13"/>
+      <c r="AKI13"/>
+      <c r="AKJ13"/>
+      <c r="AKK13"/>
+      <c r="AKL13"/>
+      <c r="AKM13"/>
+      <c r="AKN13"/>
+      <c r="AKO13"/>
+      <c r="AKP13"/>
+      <c r="AKQ13"/>
+      <c r="AKR13"/>
+      <c r="AKS13"/>
+      <c r="AKT13"/>
+      <c r="AKU13"/>
+      <c r="AKV13"/>
+      <c r="AKW13"/>
+      <c r="AKX13"/>
+      <c r="AKY13"/>
+      <c r="AKZ13"/>
+      <c r="ALA13"/>
+      <c r="ALB13"/>
+      <c r="ALC13"/>
+      <c r="ALD13"/>
+      <c r="ALE13"/>
+      <c r="ALF13"/>
+      <c r="ALG13"/>
+      <c r="ALH13"/>
+      <c r="ALI13"/>
+      <c r="ALJ13"/>
+      <c r="ALK13"/>
+      <c r="ALL13"/>
+      <c r="ALM13"/>
+      <c r="ALN13"/>
+      <c r="ALO13"/>
+      <c r="ALP13"/>
+      <c r="ALQ13"/>
+      <c r="ALR13"/>
+      <c r="ALS13"/>
+      <c r="ALT13"/>
+      <c r="ALU13"/>
+      <c r="ALV13"/>
+      <c r="ALW13"/>
+      <c r="ALX13"/>
+      <c r="ALY13"/>
+      <c r="ALZ13"/>
+      <c r="AMA13"/>
+      <c r="AMB13"/>
+      <c r="AMC13"/>
+      <c r="AMD13"/>
+      <c r="AME13"/>
+      <c r="AMF13"/>
+      <c r="AMG13"/>
+      <c r="AMH13"/>
+      <c r="AMI13"/>
+      <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
-      <c r="BL14"/>
-      <c r="BM14"/>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14"/>
-      <c r="CL14"/>
-      <c r="CM14"/>
-      <c r="CN14"/>
-      <c r="CO14"/>
-      <c r="CP14"/>
-      <c r="CQ14"/>
-      <c r="CR14"/>
-      <c r="CS14"/>
-      <c r="CT14"/>
-      <c r="CU14"/>
-      <c r="CV14"/>
-      <c r="CW14"/>
-      <c r="CX14"/>
-      <c r="CY14"/>
-      <c r="CZ14"/>
-      <c r="DA14"/>
-      <c r="DB14"/>
-      <c r="DC14"/>
-      <c r="DD14"/>
-      <c r="DE14"/>
-      <c r="DF14"/>
-      <c r="DG14"/>
-      <c r="DH14"/>
-      <c r="DI14"/>
-      <c r="DJ14"/>
-      <c r="DK14"/>
-      <c r="DL14"/>
-      <c r="DM14"/>
-      <c r="DN14"/>
-      <c r="DO14"/>
-      <c r="DP14"/>
-      <c r="DQ14"/>
-      <c r="DR14"/>
-      <c r="DS14"/>
-      <c r="DT14"/>
-      <c r="DU14"/>
-      <c r="DV14"/>
-      <c r="DW14"/>
-      <c r="DX14"/>
-      <c r="DY14"/>
-      <c r="DZ14"/>
-      <c r="EA14"/>
-      <c r="EB14"/>
-      <c r="EC14"/>
-      <c r="ED14"/>
-      <c r="EE14"/>
-      <c r="EF14"/>
-      <c r="EG14"/>
-      <c r="EH14"/>
-      <c r="EI14"/>
-      <c r="EJ14"/>
-      <c r="EK14"/>
-      <c r="EL14"/>
-      <c r="EM14"/>
-      <c r="EN14"/>
-      <c r="EO14"/>
-      <c r="EP14"/>
-      <c r="EQ14"/>
-      <c r="ER14"/>
-      <c r="ES14"/>
-      <c r="ET14"/>
-      <c r="EU14"/>
-      <c r="EV14"/>
-      <c r="EW14"/>
-      <c r="EX14"/>
-      <c r="EY14"/>
-      <c r="EZ14"/>
-      <c r="FA14"/>
-      <c r="FB14"/>
-      <c r="FC14"/>
-      <c r="FD14"/>
-      <c r="FE14"/>
-      <c r="FF14"/>
-      <c r="FG14"/>
-      <c r="FH14"/>
-      <c r="FI14"/>
-      <c r="FJ14"/>
-      <c r="FK14"/>
-      <c r="FL14"/>
-      <c r="FM14"/>
-      <c r="FN14"/>
-      <c r="FO14"/>
-      <c r="FP14"/>
-      <c r="FQ14"/>
-      <c r="FR14"/>
-      <c r="FS14"/>
-      <c r="FT14"/>
-      <c r="FU14"/>
-      <c r="FV14"/>
-      <c r="FW14"/>
-      <c r="FX14"/>
-      <c r="FY14"/>
-      <c r="FZ14"/>
-      <c r="GA14"/>
-      <c r="GB14"/>
-      <c r="GC14"/>
-      <c r="GD14"/>
-      <c r="GE14"/>
-      <c r="GF14"/>
-      <c r="GG14"/>
-      <c r="GH14"/>
-      <c r="GI14"/>
-      <c r="GJ14"/>
-      <c r="GK14"/>
-      <c r="GL14"/>
-      <c r="GM14"/>
-      <c r="GN14"/>
-      <c r="GO14"/>
-      <c r="GP14"/>
-      <c r="GQ14"/>
-      <c r="GR14"/>
-      <c r="GS14"/>
-      <c r="GT14"/>
-      <c r="GU14"/>
-      <c r="GV14"/>
-      <c r="GW14"/>
-      <c r="GX14"/>
-      <c r="GY14"/>
-      <c r="GZ14"/>
-      <c r="HA14"/>
-      <c r="HB14"/>
-      <c r="HC14"/>
-      <c r="HD14"/>
-      <c r="HE14"/>
-      <c r="HF14"/>
-      <c r="HG14"/>
-      <c r="HH14"/>
-      <c r="HI14"/>
-      <c r="HJ14"/>
-      <c r="HK14"/>
-      <c r="HL14"/>
-      <c r="HM14"/>
-      <c r="HN14"/>
-      <c r="HO14"/>
-      <c r="HP14"/>
-      <c r="HQ14"/>
-      <c r="HR14"/>
-      <c r="HS14"/>
-      <c r="HT14"/>
-      <c r="HU14"/>
-      <c r="HV14"/>
-      <c r="HW14"/>
-      <c r="HX14"/>
-      <c r="HY14"/>
-      <c r="HZ14"/>
-      <c r="IA14"/>
-      <c r="IB14"/>
-      <c r="IC14"/>
-      <c r="ID14"/>
-      <c r="IE14"/>
-      <c r="IF14"/>
-      <c r="IG14"/>
-      <c r="IH14"/>
-      <c r="II14"/>
-      <c r="IJ14"/>
-      <c r="IK14"/>
-      <c r="IL14"/>
-      <c r="IM14"/>
-      <c r="IN14"/>
-      <c r="IO14"/>
-      <c r="IP14"/>
-      <c r="IQ14"/>
-      <c r="IR14"/>
-      <c r="IS14"/>
-      <c r="IT14"/>
-      <c r="IU14"/>
-      <c r="IV14"/>
-      <c r="IW14"/>
-      <c r="IX14"/>
-      <c r="IY14"/>
-      <c r="IZ14"/>
-      <c r="JA14"/>
-      <c r="JB14"/>
-      <c r="JC14"/>
-      <c r="JD14"/>
-      <c r="JE14"/>
-      <c r="JF14"/>
-      <c r="JG14"/>
-      <c r="JH14"/>
-      <c r="JI14"/>
-      <c r="JJ14"/>
-      <c r="JK14"/>
-      <c r="JL14"/>
-      <c r="JM14"/>
-      <c r="JN14"/>
-      <c r="JO14"/>
-      <c r="JP14"/>
-      <c r="JQ14"/>
-      <c r="JR14"/>
-      <c r="JS14"/>
-      <c r="JT14"/>
-      <c r="JU14"/>
-      <c r="JV14"/>
-      <c r="JW14"/>
-      <c r="JX14"/>
-      <c r="JY14"/>
-      <c r="JZ14"/>
-      <c r="KA14"/>
-      <c r="KB14"/>
-      <c r="KC14"/>
-      <c r="KD14"/>
-      <c r="KE14"/>
-      <c r="KF14"/>
-      <c r="KG14"/>
-      <c r="KH14"/>
-      <c r="KI14"/>
-      <c r="KJ14"/>
-      <c r="KK14"/>
-      <c r="KL14"/>
-      <c r="KM14"/>
-      <c r="KN14"/>
-      <c r="KO14"/>
-      <c r="KP14"/>
-      <c r="KQ14"/>
-      <c r="KR14"/>
-      <c r="KS14"/>
-      <c r="KT14"/>
-      <c r="KU14"/>
-      <c r="KV14"/>
-      <c r="KW14"/>
-      <c r="KX14"/>
-      <c r="KY14"/>
-      <c r="KZ14"/>
-      <c r="LA14"/>
-      <c r="LB14"/>
-      <c r="LC14"/>
-      <c r="LD14"/>
-      <c r="LE14"/>
-      <c r="LF14"/>
-      <c r="LG14"/>
-      <c r="LH14"/>
-      <c r="LI14"/>
-      <c r="LJ14"/>
-      <c r="LK14"/>
-      <c r="LL14"/>
-      <c r="LM14"/>
-      <c r="LN14"/>
-      <c r="LO14"/>
-      <c r="LP14"/>
-      <c r="LQ14"/>
-      <c r="LR14"/>
-      <c r="LS14"/>
-      <c r="LT14"/>
-      <c r="LU14"/>
-      <c r="LV14"/>
-      <c r="LW14"/>
-      <c r="LX14"/>
-      <c r="LY14"/>
-      <c r="LZ14"/>
-      <c r="MA14"/>
-      <c r="MB14"/>
-      <c r="MC14"/>
-      <c r="MD14"/>
-      <c r="ME14"/>
-      <c r="MF14"/>
-      <c r="MG14"/>
-      <c r="MH14"/>
-      <c r="MI14"/>
-      <c r="MJ14"/>
-      <c r="MK14"/>
-      <c r="ML14"/>
-      <c r="MM14"/>
-      <c r="MN14"/>
-      <c r="MO14"/>
-      <c r="MP14"/>
-      <c r="MQ14"/>
-      <c r="MR14"/>
-      <c r="MS14"/>
-      <c r="MT14"/>
-      <c r="MU14"/>
-      <c r="MV14"/>
-      <c r="MW14"/>
-      <c r="MX14"/>
-      <c r="MY14"/>
-      <c r="MZ14"/>
-      <c r="NA14"/>
-      <c r="NB14"/>
-      <c r="NC14"/>
-      <c r="ND14"/>
-      <c r="NE14"/>
-      <c r="NF14"/>
-      <c r="NG14"/>
-      <c r="NH14"/>
-      <c r="NI14"/>
-      <c r="NJ14"/>
-      <c r="NK14"/>
-      <c r="NL14"/>
-      <c r="NM14"/>
-      <c r="NN14"/>
-      <c r="NO14"/>
-      <c r="NP14"/>
-      <c r="NQ14"/>
-      <c r="NR14"/>
-      <c r="NS14"/>
-      <c r="NT14"/>
-      <c r="NU14"/>
-      <c r="NV14"/>
-      <c r="NW14"/>
-      <c r="NX14"/>
-      <c r="NY14"/>
-      <c r="NZ14"/>
-      <c r="OA14"/>
-      <c r="OB14"/>
-      <c r="OC14"/>
-      <c r="OD14"/>
-      <c r="OE14"/>
-      <c r="OF14"/>
-      <c r="OG14"/>
-      <c r="OH14"/>
-      <c r="OI14"/>
-      <c r="OJ14"/>
-      <c r="OK14"/>
-      <c r="OL14"/>
-      <c r="OM14"/>
-      <c r="ON14"/>
-      <c r="OO14"/>
-      <c r="OP14"/>
-      <c r="OQ14"/>
-      <c r="OR14"/>
-      <c r="OS14"/>
-      <c r="OT14"/>
-      <c r="OU14"/>
-      <c r="OV14"/>
-      <c r="OW14"/>
-      <c r="OX14"/>
-      <c r="OY14"/>
-      <c r="OZ14"/>
-      <c r="PA14"/>
-      <c r="PB14"/>
-      <c r="PC14"/>
-      <c r="PD14"/>
-      <c r="PE14"/>
-      <c r="PF14"/>
-      <c r="PG14"/>
-      <c r="PH14"/>
-      <c r="PI14"/>
-      <c r="PJ14"/>
-      <c r="PK14"/>
-      <c r="PL14"/>
-      <c r="PM14"/>
-      <c r="PN14"/>
-      <c r="PO14"/>
-      <c r="PP14"/>
-      <c r="PQ14"/>
-      <c r="PR14"/>
-      <c r="PS14"/>
-      <c r="PT14"/>
-      <c r="PU14"/>
-      <c r="PV14"/>
-      <c r="PW14"/>
-      <c r="PX14"/>
-      <c r="PY14"/>
-      <c r="PZ14"/>
-      <c r="QA14"/>
-      <c r="QB14"/>
-      <c r="QC14"/>
-      <c r="QD14"/>
-      <c r="QE14"/>
-      <c r="QF14"/>
-      <c r="QG14"/>
-      <c r="QH14"/>
-      <c r="QI14"/>
-      <c r="QJ14"/>
-      <c r="QK14"/>
-      <c r="QL14"/>
-      <c r="QM14"/>
-      <c r="QN14"/>
-      <c r="QO14"/>
-      <c r="QP14"/>
-      <c r="QQ14"/>
-      <c r="QR14"/>
-      <c r="QS14"/>
-      <c r="QT14"/>
-      <c r="QU14"/>
-      <c r="QV14"/>
-      <c r="QW14"/>
-      <c r="QX14"/>
-      <c r="QY14"/>
-      <c r="QZ14"/>
-      <c r="RA14"/>
-      <c r="RB14"/>
-      <c r="RC14"/>
-      <c r="RD14"/>
-      <c r="RE14"/>
-      <c r="RF14"/>
-      <c r="RG14"/>
-      <c r="RH14"/>
-      <c r="RI14"/>
-      <c r="RJ14"/>
-      <c r="RK14"/>
-      <c r="RL14"/>
-      <c r="RM14"/>
-      <c r="RN14"/>
-      <c r="RO14"/>
-      <c r="RP14"/>
-      <c r="RQ14"/>
-      <c r="RR14"/>
-      <c r="RS14"/>
-      <c r="RT14"/>
-      <c r="RU14"/>
-      <c r="RV14"/>
-      <c r="RW14"/>
-      <c r="RX14"/>
-      <c r="RY14"/>
-      <c r="RZ14"/>
-      <c r="SA14"/>
-      <c r="SB14"/>
-      <c r="SC14"/>
-      <c r="SD14"/>
-      <c r="SE14"/>
-      <c r="SF14"/>
-      <c r="SG14"/>
-      <c r="SH14"/>
-      <c r="SI14"/>
-      <c r="SJ14"/>
-      <c r="SK14"/>
-      <c r="SL14"/>
-      <c r="SM14"/>
-      <c r="SN14"/>
-      <c r="SO14"/>
-      <c r="SP14"/>
-      <c r="SQ14"/>
-      <c r="SR14"/>
-      <c r="SS14"/>
-      <c r="ST14"/>
-      <c r="SU14"/>
-      <c r="SV14"/>
-      <c r="SW14"/>
-      <c r="SX14"/>
-      <c r="SY14"/>
-      <c r="SZ14"/>
-      <c r="TA14"/>
-      <c r="TB14"/>
-      <c r="TC14"/>
-      <c r="TD14"/>
-      <c r="TE14"/>
-      <c r="TF14"/>
-      <c r="TG14"/>
-      <c r="TH14"/>
-      <c r="TI14"/>
-      <c r="TJ14"/>
-      <c r="TK14"/>
-      <c r="TL14"/>
-      <c r="TM14"/>
-      <c r="TN14"/>
-      <c r="TO14"/>
-      <c r="TP14"/>
-      <c r="TQ14"/>
-      <c r="TR14"/>
-      <c r="TS14"/>
-      <c r="TT14"/>
-      <c r="TU14"/>
-      <c r="TV14"/>
-      <c r="TW14"/>
-      <c r="TX14"/>
-      <c r="TY14"/>
-      <c r="TZ14"/>
-      <c r="UA14"/>
-      <c r="UB14"/>
-      <c r="UC14"/>
-      <c r="UD14"/>
-      <c r="UE14"/>
-      <c r="UF14"/>
-      <c r="UG14"/>
-      <c r="UH14"/>
-      <c r="UI14"/>
-      <c r="UJ14"/>
-      <c r="UK14"/>
-      <c r="UL14"/>
-      <c r="UM14"/>
-      <c r="UN14"/>
-      <c r="UO14"/>
-      <c r="UP14"/>
-      <c r="UQ14"/>
-      <c r="UR14"/>
-      <c r="US14"/>
-      <c r="UT14"/>
-      <c r="UU14"/>
-      <c r="UV14"/>
-      <c r="UW14"/>
-      <c r="UX14"/>
-      <c r="UY14"/>
-      <c r="UZ14"/>
-      <c r="VA14"/>
-      <c r="VB14"/>
-      <c r="VC14"/>
-      <c r="VD14"/>
-      <c r="VE14"/>
-      <c r="VF14"/>
-      <c r="VG14"/>
-      <c r="VH14"/>
-      <c r="VI14"/>
-      <c r="VJ14"/>
-      <c r="VK14"/>
-      <c r="VL14"/>
-      <c r="VM14"/>
-      <c r="VN14"/>
-      <c r="VO14"/>
-      <c r="VP14"/>
-      <c r="VQ14"/>
-      <c r="VR14"/>
-      <c r="VS14"/>
-      <c r="VT14"/>
-      <c r="VU14"/>
-      <c r="VV14"/>
-      <c r="VW14"/>
-      <c r="VX14"/>
-      <c r="VY14"/>
-      <c r="VZ14"/>
-      <c r="WA14"/>
-      <c r="WB14"/>
-      <c r="WC14"/>
-      <c r="WD14"/>
-      <c r="WE14"/>
-      <c r="WF14"/>
-      <c r="WG14"/>
-      <c r="WH14"/>
-      <c r="WI14"/>
-      <c r="WJ14"/>
-      <c r="WK14"/>
-      <c r="WL14"/>
-      <c r="WM14"/>
-      <c r="WN14"/>
-      <c r="WO14"/>
-      <c r="WP14"/>
-      <c r="WQ14"/>
-      <c r="WR14"/>
-      <c r="WS14"/>
-      <c r="WT14"/>
-      <c r="WU14"/>
-      <c r="WV14"/>
-      <c r="WW14"/>
-      <c r="WX14"/>
-      <c r="WY14"/>
-      <c r="WZ14"/>
-      <c r="XA14"/>
-      <c r="XB14"/>
-      <c r="XC14"/>
-      <c r="XD14"/>
-      <c r="XE14"/>
-      <c r="XF14"/>
-      <c r="XG14"/>
-      <c r="XH14"/>
-      <c r="XI14"/>
-      <c r="XJ14"/>
-      <c r="XK14"/>
-      <c r="XL14"/>
-      <c r="XM14"/>
-      <c r="XN14"/>
-      <c r="XO14"/>
-      <c r="XP14"/>
-      <c r="XQ14"/>
-      <c r="XR14"/>
-      <c r="XS14"/>
-      <c r="XT14"/>
-      <c r="XU14"/>
-      <c r="XV14"/>
-      <c r="XW14"/>
-      <c r="XX14"/>
-      <c r="XY14"/>
-      <c r="XZ14"/>
-      <c r="YA14"/>
-      <c r="YB14"/>
-      <c r="YC14"/>
-      <c r="YD14"/>
-      <c r="YE14"/>
-      <c r="YF14"/>
-      <c r="YG14"/>
-      <c r="YH14"/>
-      <c r="YI14"/>
-      <c r="YJ14"/>
-      <c r="YK14"/>
-      <c r="YL14"/>
-      <c r="YM14"/>
-      <c r="YN14"/>
-      <c r="YO14"/>
-      <c r="YP14"/>
-      <c r="YQ14"/>
-      <c r="YR14"/>
-      <c r="YS14"/>
-      <c r="YT14"/>
-      <c r="YU14"/>
-      <c r="YV14"/>
-      <c r="YW14"/>
-      <c r="YX14"/>
-      <c r="YY14"/>
-      <c r="YZ14"/>
-      <c r="ZA14"/>
-      <c r="ZB14"/>
-      <c r="ZC14"/>
-      <c r="ZD14"/>
-      <c r="ZE14"/>
-      <c r="ZF14"/>
-      <c r="ZG14"/>
-      <c r="ZH14"/>
-      <c r="ZI14"/>
-      <c r="ZJ14"/>
-      <c r="ZK14"/>
-      <c r="ZL14"/>
-      <c r="ZM14"/>
-      <c r="ZN14"/>
-      <c r="ZO14"/>
-      <c r="ZP14"/>
-      <c r="ZQ14"/>
-      <c r="ZR14"/>
-      <c r="ZS14"/>
-      <c r="ZT14"/>
-      <c r="ZU14"/>
-      <c r="ZV14"/>
-      <c r="ZW14"/>
-      <c r="ZX14"/>
-      <c r="ZY14"/>
-      <c r="ZZ14"/>
-      <c r="AAA14"/>
-      <c r="AAB14"/>
-      <c r="AAC14"/>
-      <c r="AAD14"/>
-      <c r="AAE14"/>
-      <c r="AAF14"/>
-      <c r="AAG14"/>
-      <c r="AAH14"/>
-      <c r="AAI14"/>
-      <c r="AAJ14"/>
-      <c r="AAK14"/>
-      <c r="AAL14"/>
-      <c r="AAM14"/>
-      <c r="AAN14"/>
-      <c r="AAO14"/>
-      <c r="AAP14"/>
-      <c r="AAQ14"/>
-      <c r="AAR14"/>
-      <c r="AAS14"/>
-      <c r="AAT14"/>
-      <c r="AAU14"/>
-      <c r="AAV14"/>
-      <c r="AAW14"/>
-      <c r="AAX14"/>
-      <c r="AAY14"/>
-      <c r="AAZ14"/>
-      <c r="ABA14"/>
-      <c r="ABB14"/>
-      <c r="ABC14"/>
-      <c r="ABD14"/>
-      <c r="ABE14"/>
-      <c r="ABF14"/>
-      <c r="ABG14"/>
-      <c r="ABH14"/>
-      <c r="ABI14"/>
-      <c r="ABJ14"/>
-      <c r="ABK14"/>
-      <c r="ABL14"/>
-      <c r="ABM14"/>
-      <c r="ABN14"/>
-      <c r="ABO14"/>
-      <c r="ABP14"/>
-      <c r="ABQ14"/>
-      <c r="ABR14"/>
-      <c r="ABS14"/>
-      <c r="ABT14"/>
-      <c r="ABU14"/>
-      <c r="ABV14"/>
-      <c r="ABW14"/>
-      <c r="ABX14"/>
-      <c r="ABY14"/>
-      <c r="ABZ14"/>
-      <c r="ACA14"/>
-      <c r="ACB14"/>
-      <c r="ACC14"/>
-      <c r="ACD14"/>
-      <c r="ACE14"/>
-      <c r="ACF14"/>
-      <c r="ACG14"/>
-      <c r="ACH14"/>
-      <c r="ACI14"/>
-      <c r="ACJ14"/>
-      <c r="ACK14"/>
-      <c r="ACL14"/>
-      <c r="ACM14"/>
-      <c r="ACN14"/>
-      <c r="ACO14"/>
-      <c r="ACP14"/>
-      <c r="ACQ14"/>
-      <c r="ACR14"/>
-      <c r="ACS14"/>
-      <c r="ACT14"/>
-      <c r="ACU14"/>
-      <c r="ACV14"/>
-      <c r="ACW14"/>
-      <c r="ACX14"/>
-      <c r="ACY14"/>
-      <c r="ACZ14"/>
-      <c r="ADA14"/>
-      <c r="ADB14"/>
-      <c r="ADC14"/>
-      <c r="ADD14"/>
-      <c r="ADE14"/>
-      <c r="ADF14"/>
-      <c r="ADG14"/>
-      <c r="ADH14"/>
-      <c r="ADI14"/>
-      <c r="ADJ14"/>
-      <c r="ADK14"/>
-      <c r="ADL14"/>
-      <c r="ADM14"/>
-      <c r="ADN14"/>
-      <c r="ADO14"/>
-      <c r="ADP14"/>
-      <c r="ADQ14"/>
-      <c r="ADR14"/>
-      <c r="ADS14"/>
-      <c r="ADT14"/>
-      <c r="ADU14"/>
-      <c r="ADV14"/>
-      <c r="ADW14"/>
-      <c r="ADX14"/>
-      <c r="ADY14"/>
-      <c r="ADZ14"/>
-      <c r="AEA14"/>
-      <c r="AEB14"/>
-      <c r="AEC14"/>
-      <c r="AED14"/>
-      <c r="AEE14"/>
-      <c r="AEF14"/>
-      <c r="AEG14"/>
-      <c r="AEH14"/>
-      <c r="AEI14"/>
-      <c r="AEJ14"/>
-      <c r="AEK14"/>
-      <c r="AEL14"/>
-      <c r="AEM14"/>
-      <c r="AEN14"/>
-      <c r="AEO14"/>
-      <c r="AEP14"/>
-      <c r="AEQ14"/>
-      <c r="AER14"/>
-      <c r="AES14"/>
-      <c r="AET14"/>
-      <c r="AEU14"/>
-      <c r="AEV14"/>
-      <c r="AEW14"/>
-      <c r="AEX14"/>
-      <c r="AEY14"/>
-      <c r="AEZ14"/>
-      <c r="AFA14"/>
-      <c r="AFB14"/>
-      <c r="AFC14"/>
-      <c r="AFD14"/>
-      <c r="AFE14"/>
-      <c r="AFF14"/>
-      <c r="AFG14"/>
-      <c r="AFH14"/>
-      <c r="AFI14"/>
-      <c r="AFJ14"/>
-      <c r="AFK14"/>
-      <c r="AFL14"/>
-      <c r="AFM14"/>
-      <c r="AFN14"/>
-      <c r="AFO14"/>
-      <c r="AFP14"/>
-      <c r="AFQ14"/>
-      <c r="AFR14"/>
-      <c r="AFS14"/>
-      <c r="AFT14"/>
-      <c r="AFU14"/>
-      <c r="AFV14"/>
-      <c r="AFW14"/>
-      <c r="AFX14"/>
-      <c r="AFY14"/>
-      <c r="AFZ14"/>
-      <c r="AGA14"/>
-      <c r="AGB14"/>
-      <c r="AGC14"/>
-      <c r="AGD14"/>
-      <c r="AGE14"/>
-      <c r="AGF14"/>
-      <c r="AGG14"/>
-      <c r="AGH14"/>
-      <c r="AGI14"/>
-      <c r="AGJ14"/>
-      <c r="AGK14"/>
-      <c r="AGL14"/>
-      <c r="AGM14"/>
-      <c r="AGN14"/>
-      <c r="AGO14"/>
-      <c r="AGP14"/>
-      <c r="AGQ14"/>
-      <c r="AGR14"/>
-      <c r="AGS14"/>
-      <c r="AGT14"/>
-      <c r="AGU14"/>
-      <c r="AGV14"/>
-      <c r="AGW14"/>
-      <c r="AGX14"/>
-      <c r="AGY14"/>
-      <c r="AGZ14"/>
-      <c r="AHA14"/>
-      <c r="AHB14"/>
-      <c r="AHC14"/>
-      <c r="AHD14"/>
-      <c r="AHE14"/>
-      <c r="AHF14"/>
-      <c r="AHG14"/>
-      <c r="AHH14"/>
-      <c r="AHI14"/>
-      <c r="AHJ14"/>
-      <c r="AHK14"/>
-      <c r="AHL14"/>
-      <c r="AHM14"/>
-      <c r="AHN14"/>
-      <c r="AHO14"/>
-      <c r="AHP14"/>
-      <c r="AHQ14"/>
-      <c r="AHR14"/>
-      <c r="AHS14"/>
-      <c r="AHT14"/>
-      <c r="AHU14"/>
-      <c r="AHV14"/>
-      <c r="AHW14"/>
-      <c r="AHX14"/>
-      <c r="AHY14"/>
-      <c r="AHZ14"/>
-      <c r="AIA14"/>
-      <c r="AIB14"/>
-      <c r="AIC14"/>
-      <c r="AID14"/>
-      <c r="AIE14"/>
-      <c r="AIF14"/>
-      <c r="AIG14"/>
-      <c r="AIH14"/>
-      <c r="AII14"/>
-      <c r="AIJ14"/>
-      <c r="AIK14"/>
-      <c r="AIL14"/>
-      <c r="AIM14"/>
-      <c r="AIN14"/>
-      <c r="AIO14"/>
-      <c r="AIP14"/>
-      <c r="AIQ14"/>
-      <c r="AIR14"/>
-      <c r="AIS14"/>
-      <c r="AIT14"/>
-      <c r="AIU14"/>
-      <c r="AIV14"/>
-      <c r="AIW14"/>
-      <c r="AIX14"/>
-      <c r="AIY14"/>
-      <c r="AIZ14"/>
-      <c r="AJA14"/>
-      <c r="AJB14"/>
-      <c r="AJC14"/>
-      <c r="AJD14"/>
-      <c r="AJE14"/>
-      <c r="AJF14"/>
-      <c r="AJG14"/>
-      <c r="AJH14"/>
-      <c r="AJI14"/>
-      <c r="AJJ14"/>
-      <c r="AJK14"/>
-      <c r="AJL14"/>
-      <c r="AJM14"/>
-      <c r="AJN14"/>
-      <c r="AJO14"/>
-      <c r="AJP14"/>
-      <c r="AJQ14"/>
-      <c r="AJR14"/>
-      <c r="AJS14"/>
-      <c r="AJT14"/>
-      <c r="AJU14"/>
-      <c r="AJV14"/>
-      <c r="AJW14"/>
-      <c r="AJX14"/>
-      <c r="AJY14"/>
-      <c r="AJZ14"/>
-      <c r="AKA14"/>
-      <c r="AKB14"/>
-      <c r="AKC14"/>
-      <c r="AKD14"/>
-      <c r="AKE14"/>
-      <c r="AKF14"/>
-      <c r="AKG14"/>
-      <c r="AKH14"/>
-      <c r="AKI14"/>
-      <c r="AKJ14"/>
-      <c r="AKK14"/>
-      <c r="AKL14"/>
-      <c r="AKM14"/>
-      <c r="AKN14"/>
-      <c r="AKO14"/>
-      <c r="AKP14"/>
-      <c r="AKQ14"/>
-      <c r="AKR14"/>
-      <c r="AKS14"/>
-      <c r="AKT14"/>
-      <c r="AKU14"/>
-      <c r="AKV14"/>
-      <c r="AKW14"/>
-      <c r="AKX14"/>
-      <c r="AKY14"/>
-      <c r="AKZ14"/>
-      <c r="ALA14"/>
-      <c r="ALB14"/>
-      <c r="ALC14"/>
-      <c r="ALD14"/>
-      <c r="ALE14"/>
-      <c r="ALF14"/>
-      <c r="ALG14"/>
-      <c r="ALH14"/>
-      <c r="ALI14"/>
-      <c r="ALJ14"/>
-      <c r="ALK14"/>
-      <c r="ALL14"/>
-      <c r="ALM14"/>
-      <c r="ALN14"/>
-      <c r="ALO14"/>
-      <c r="ALP14"/>
-      <c r="ALQ14"/>
-      <c r="ALR14"/>
-      <c r="ALS14"/>
-      <c r="ALT14"/>
-      <c r="ALU14"/>
-      <c r="ALV14"/>
-      <c r="ALW14"/>
-      <c r="ALX14"/>
-      <c r="ALY14"/>
-      <c r="ALZ14"/>
-      <c r="AMA14"/>
-      <c r="AMB14"/>
-      <c r="AMC14"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
+    <row r="14" spans="1:1024" s="28" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="23"/>
     </row>
     <row r="15" spans="1:1024">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="10"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15"/>
@@ -15258,45 +15183,33 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" ht="44.25" customHeight="1">
-      <c r="A16" s="14">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="17">
-        <v>42513</v>
-      </c>
-      <c r="F16" s="17">
-        <v>42513</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
+    <row r="16" spans="1:1024">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
@@ -16296,1129 +16209,1091 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="21" customFormat="1" ht="76.5">
-      <c r="A17" s="14">
-        <v>2</v>
+    <row r="17" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>18</v>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17"/>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17"/>
+      <c r="FJ17"/>
+      <c r="FK17"/>
+      <c r="FL17"/>
+      <c r="FM17"/>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17"/>
+      <c r="FR17"/>
+      <c r="FS17"/>
+      <c r="FT17"/>
+      <c r="FU17"/>
+      <c r="FV17"/>
+      <c r="FW17"/>
+      <c r="FX17"/>
+      <c r="FY17"/>
+      <c r="FZ17"/>
+      <c r="GA17"/>
+      <c r="GB17"/>
+      <c r="GC17"/>
+      <c r="GD17"/>
+      <c r="GE17"/>
+      <c r="GF17"/>
+      <c r="GG17"/>
+      <c r="GH17"/>
+      <c r="GI17"/>
+      <c r="GJ17"/>
+      <c r="GK17"/>
+      <c r="GL17"/>
+      <c r="GM17"/>
+      <c r="GN17"/>
+      <c r="GO17"/>
+      <c r="GP17"/>
+      <c r="GQ17"/>
+      <c r="GR17"/>
+      <c r="GS17"/>
+      <c r="GT17"/>
+      <c r="GU17"/>
+      <c r="GV17"/>
+      <c r="GW17"/>
+      <c r="GX17"/>
+      <c r="GY17"/>
+      <c r="GZ17"/>
+      <c r="HA17"/>
+      <c r="HB17"/>
+      <c r="HC17"/>
+      <c r="HD17"/>
+      <c r="HE17"/>
+      <c r="HF17"/>
+      <c r="HG17"/>
+      <c r="HH17"/>
+      <c r="HI17"/>
+      <c r="HJ17"/>
+      <c r="HK17"/>
+      <c r="HL17"/>
+      <c r="HM17"/>
+      <c r="HN17"/>
+      <c r="HO17"/>
+      <c r="HP17"/>
+      <c r="HQ17"/>
+      <c r="HR17"/>
+      <c r="HS17"/>
+      <c r="HT17"/>
+      <c r="HU17"/>
+      <c r="HV17"/>
+      <c r="HW17"/>
+      <c r="HX17"/>
+      <c r="HY17"/>
+      <c r="HZ17"/>
+      <c r="IA17"/>
+      <c r="IB17"/>
+      <c r="IC17"/>
+      <c r="ID17"/>
+      <c r="IE17"/>
+      <c r="IF17"/>
+      <c r="IG17"/>
+      <c r="IH17"/>
+      <c r="II17"/>
+      <c r="IJ17"/>
+      <c r="IK17"/>
+      <c r="IL17"/>
+      <c r="IM17"/>
+      <c r="IN17"/>
+      <c r="IO17"/>
+      <c r="IP17"/>
+      <c r="IQ17"/>
+      <c r="IR17"/>
+      <c r="IS17"/>
+      <c r="IT17"/>
+      <c r="IU17"/>
+      <c r="IV17"/>
+      <c r="IW17"/>
+      <c r="IX17"/>
+      <c r="IY17"/>
+      <c r="IZ17"/>
+      <c r="JA17"/>
+      <c r="JB17"/>
+      <c r="JC17"/>
+      <c r="JD17"/>
+      <c r="JE17"/>
+      <c r="JF17"/>
+      <c r="JG17"/>
+      <c r="JH17"/>
+      <c r="JI17"/>
+      <c r="JJ17"/>
+      <c r="JK17"/>
+      <c r="JL17"/>
+      <c r="JM17"/>
+      <c r="JN17"/>
+      <c r="JO17"/>
+      <c r="JP17"/>
+      <c r="JQ17"/>
+      <c r="JR17"/>
+      <c r="JS17"/>
+      <c r="JT17"/>
+      <c r="JU17"/>
+      <c r="JV17"/>
+      <c r="JW17"/>
+      <c r="JX17"/>
+      <c r="JY17"/>
+      <c r="JZ17"/>
+      <c r="KA17"/>
+      <c r="KB17"/>
+      <c r="KC17"/>
+      <c r="KD17"/>
+      <c r="KE17"/>
+      <c r="KF17"/>
+      <c r="KG17"/>
+      <c r="KH17"/>
+      <c r="KI17"/>
+      <c r="KJ17"/>
+      <c r="KK17"/>
+      <c r="KL17"/>
+      <c r="KM17"/>
+      <c r="KN17"/>
+      <c r="KO17"/>
+      <c r="KP17"/>
+      <c r="KQ17"/>
+      <c r="KR17"/>
+      <c r="KS17"/>
+      <c r="KT17"/>
+      <c r="KU17"/>
+      <c r="KV17"/>
+      <c r="KW17"/>
+      <c r="KX17"/>
+      <c r="KY17"/>
+      <c r="KZ17"/>
+      <c r="LA17"/>
+      <c r="LB17"/>
+      <c r="LC17"/>
+      <c r="LD17"/>
+      <c r="LE17"/>
+      <c r="LF17"/>
+      <c r="LG17"/>
+      <c r="LH17"/>
+      <c r="LI17"/>
+      <c r="LJ17"/>
+      <c r="LK17"/>
+      <c r="LL17"/>
+      <c r="LM17"/>
+      <c r="LN17"/>
+      <c r="LO17"/>
+      <c r="LP17"/>
+      <c r="LQ17"/>
+      <c r="LR17"/>
+      <c r="LS17"/>
+      <c r="LT17"/>
+      <c r="LU17"/>
+      <c r="LV17"/>
+      <c r="LW17"/>
+      <c r="LX17"/>
+      <c r="LY17"/>
+      <c r="LZ17"/>
+      <c r="MA17"/>
+      <c r="MB17"/>
+      <c r="MC17"/>
+      <c r="MD17"/>
+      <c r="ME17"/>
+      <c r="MF17"/>
+      <c r="MG17"/>
+      <c r="MH17"/>
+      <c r="MI17"/>
+      <c r="MJ17"/>
+      <c r="MK17"/>
+      <c r="ML17"/>
+      <c r="MM17"/>
+      <c r="MN17"/>
+      <c r="MO17"/>
+      <c r="MP17"/>
+      <c r="MQ17"/>
+      <c r="MR17"/>
+      <c r="MS17"/>
+      <c r="MT17"/>
+      <c r="MU17"/>
+      <c r="MV17"/>
+      <c r="MW17"/>
+      <c r="MX17"/>
+      <c r="MY17"/>
+      <c r="MZ17"/>
+      <c r="NA17"/>
+      <c r="NB17"/>
+      <c r="NC17"/>
+      <c r="ND17"/>
+      <c r="NE17"/>
+      <c r="NF17"/>
+      <c r="NG17"/>
+      <c r="NH17"/>
+      <c r="NI17"/>
+      <c r="NJ17"/>
+      <c r="NK17"/>
+      <c r="NL17"/>
+      <c r="NM17"/>
+      <c r="NN17"/>
+      <c r="NO17"/>
+      <c r="NP17"/>
+      <c r="NQ17"/>
+      <c r="NR17"/>
+      <c r="NS17"/>
+      <c r="NT17"/>
+      <c r="NU17"/>
+      <c r="NV17"/>
+      <c r="NW17"/>
+      <c r="NX17"/>
+      <c r="NY17"/>
+      <c r="NZ17"/>
+      <c r="OA17"/>
+      <c r="OB17"/>
+      <c r="OC17"/>
+      <c r="OD17"/>
+      <c r="OE17"/>
+      <c r="OF17"/>
+      <c r="OG17"/>
+      <c r="OH17"/>
+      <c r="OI17"/>
+      <c r="OJ17"/>
+      <c r="OK17"/>
+      <c r="OL17"/>
+      <c r="OM17"/>
+      <c r="ON17"/>
+      <c r="OO17"/>
+      <c r="OP17"/>
+      <c r="OQ17"/>
+      <c r="OR17"/>
+      <c r="OS17"/>
+      <c r="OT17"/>
+      <c r="OU17"/>
+      <c r="OV17"/>
+      <c r="OW17"/>
+      <c r="OX17"/>
+      <c r="OY17"/>
+      <c r="OZ17"/>
+      <c r="PA17"/>
+      <c r="PB17"/>
+      <c r="PC17"/>
+      <c r="PD17"/>
+      <c r="PE17"/>
+      <c r="PF17"/>
+      <c r="PG17"/>
+      <c r="PH17"/>
+      <c r="PI17"/>
+      <c r="PJ17"/>
+      <c r="PK17"/>
+      <c r="PL17"/>
+      <c r="PM17"/>
+      <c r="PN17"/>
+      <c r="PO17"/>
+      <c r="PP17"/>
+      <c r="PQ17"/>
+      <c r="PR17"/>
+      <c r="PS17"/>
+      <c r="PT17"/>
+      <c r="PU17"/>
+      <c r="PV17"/>
+      <c r="PW17"/>
+      <c r="PX17"/>
+      <c r="PY17"/>
+      <c r="PZ17"/>
+      <c r="QA17"/>
+      <c r="QB17"/>
+      <c r="QC17"/>
+      <c r="QD17"/>
+      <c r="QE17"/>
+      <c r="QF17"/>
+      <c r="QG17"/>
+      <c r="QH17"/>
+      <c r="QI17"/>
+      <c r="QJ17"/>
+      <c r="QK17"/>
+      <c r="QL17"/>
+      <c r="QM17"/>
+      <c r="QN17"/>
+      <c r="QO17"/>
+      <c r="QP17"/>
+      <c r="QQ17"/>
+      <c r="QR17"/>
+      <c r="QS17"/>
+      <c r="QT17"/>
+      <c r="QU17"/>
+      <c r="QV17"/>
+      <c r="QW17"/>
+      <c r="QX17"/>
+      <c r="QY17"/>
+      <c r="QZ17"/>
+      <c r="RA17"/>
+      <c r="RB17"/>
+      <c r="RC17"/>
+      <c r="RD17"/>
+      <c r="RE17"/>
+      <c r="RF17"/>
+      <c r="RG17"/>
+      <c r="RH17"/>
+      <c r="RI17"/>
+      <c r="RJ17"/>
+      <c r="RK17"/>
+      <c r="RL17"/>
+      <c r="RM17"/>
+      <c r="RN17"/>
+      <c r="RO17"/>
+      <c r="RP17"/>
+      <c r="RQ17"/>
+      <c r="RR17"/>
+      <c r="RS17"/>
+      <c r="RT17"/>
+      <c r="RU17"/>
+      <c r="RV17"/>
+      <c r="RW17"/>
+      <c r="RX17"/>
+      <c r="RY17"/>
+      <c r="RZ17"/>
+      <c r="SA17"/>
+      <c r="SB17"/>
+      <c r="SC17"/>
+      <c r="SD17"/>
+      <c r="SE17"/>
+      <c r="SF17"/>
+      <c r="SG17"/>
+      <c r="SH17"/>
+      <c r="SI17"/>
+      <c r="SJ17"/>
+      <c r="SK17"/>
+      <c r="SL17"/>
+      <c r="SM17"/>
+      <c r="SN17"/>
+      <c r="SO17"/>
+      <c r="SP17"/>
+      <c r="SQ17"/>
+      <c r="SR17"/>
+      <c r="SS17"/>
+      <c r="ST17"/>
+      <c r="SU17"/>
+      <c r="SV17"/>
+      <c r="SW17"/>
+      <c r="SX17"/>
+      <c r="SY17"/>
+      <c r="SZ17"/>
+      <c r="TA17"/>
+      <c r="TB17"/>
+      <c r="TC17"/>
+      <c r="TD17"/>
+      <c r="TE17"/>
+      <c r="TF17"/>
+      <c r="TG17"/>
+      <c r="TH17"/>
+      <c r="TI17"/>
+      <c r="TJ17"/>
+      <c r="TK17"/>
+      <c r="TL17"/>
+      <c r="TM17"/>
+      <c r="TN17"/>
+      <c r="TO17"/>
+      <c r="TP17"/>
+      <c r="TQ17"/>
+      <c r="TR17"/>
+      <c r="TS17"/>
+      <c r="TT17"/>
+      <c r="TU17"/>
+      <c r="TV17"/>
+      <c r="TW17"/>
+      <c r="TX17"/>
+      <c r="TY17"/>
+      <c r="TZ17"/>
+      <c r="UA17"/>
+      <c r="UB17"/>
+      <c r="UC17"/>
+      <c r="UD17"/>
+      <c r="UE17"/>
+      <c r="UF17"/>
+      <c r="UG17"/>
+      <c r="UH17"/>
+      <c r="UI17"/>
+      <c r="UJ17"/>
+      <c r="UK17"/>
+      <c r="UL17"/>
+      <c r="UM17"/>
+      <c r="UN17"/>
+      <c r="UO17"/>
+      <c r="UP17"/>
+      <c r="UQ17"/>
+      <c r="UR17"/>
+      <c r="US17"/>
+      <c r="UT17"/>
+      <c r="UU17"/>
+      <c r="UV17"/>
+      <c r="UW17"/>
+      <c r="UX17"/>
+      <c r="UY17"/>
+      <c r="UZ17"/>
+      <c r="VA17"/>
+      <c r="VB17"/>
+      <c r="VC17"/>
+      <c r="VD17"/>
+      <c r="VE17"/>
+      <c r="VF17"/>
+      <c r="VG17"/>
+      <c r="VH17"/>
+      <c r="VI17"/>
+      <c r="VJ17"/>
+      <c r="VK17"/>
+      <c r="VL17"/>
+      <c r="VM17"/>
+      <c r="VN17"/>
+      <c r="VO17"/>
+      <c r="VP17"/>
+      <c r="VQ17"/>
+      <c r="VR17"/>
+      <c r="VS17"/>
+      <c r="VT17"/>
+      <c r="VU17"/>
+      <c r="VV17"/>
+      <c r="VW17"/>
+      <c r="VX17"/>
+      <c r="VY17"/>
+      <c r="VZ17"/>
+      <c r="WA17"/>
+      <c r="WB17"/>
+      <c r="WC17"/>
+      <c r="WD17"/>
+      <c r="WE17"/>
+      <c r="WF17"/>
+      <c r="WG17"/>
+      <c r="WH17"/>
+      <c r="WI17"/>
+      <c r="WJ17"/>
+      <c r="WK17"/>
+      <c r="WL17"/>
+      <c r="WM17"/>
+      <c r="WN17"/>
+      <c r="WO17"/>
+      <c r="WP17"/>
+      <c r="WQ17"/>
+      <c r="WR17"/>
+      <c r="WS17"/>
+      <c r="WT17"/>
+      <c r="WU17"/>
+      <c r="WV17"/>
+      <c r="WW17"/>
+      <c r="WX17"/>
+      <c r="WY17"/>
+      <c r="WZ17"/>
+      <c r="XA17"/>
+      <c r="XB17"/>
+      <c r="XC17"/>
+      <c r="XD17"/>
+      <c r="XE17"/>
+      <c r="XF17"/>
+      <c r="XG17"/>
+      <c r="XH17"/>
+      <c r="XI17"/>
+      <c r="XJ17"/>
+      <c r="XK17"/>
+      <c r="XL17"/>
+      <c r="XM17"/>
+      <c r="XN17"/>
+      <c r="XO17"/>
+      <c r="XP17"/>
+      <c r="XQ17"/>
+      <c r="XR17"/>
+      <c r="XS17"/>
+      <c r="XT17"/>
+      <c r="XU17"/>
+      <c r="XV17"/>
+      <c r="XW17"/>
+      <c r="XX17"/>
+      <c r="XY17"/>
+      <c r="XZ17"/>
+      <c r="YA17"/>
+      <c r="YB17"/>
+      <c r="YC17"/>
+      <c r="YD17"/>
+      <c r="YE17"/>
+      <c r="YF17"/>
+      <c r="YG17"/>
+      <c r="YH17"/>
+      <c r="YI17"/>
+      <c r="YJ17"/>
+      <c r="YK17"/>
+      <c r="YL17"/>
+      <c r="YM17"/>
+      <c r="YN17"/>
+      <c r="YO17"/>
+      <c r="YP17"/>
+      <c r="YQ17"/>
+      <c r="YR17"/>
+      <c r="YS17"/>
+      <c r="YT17"/>
+      <c r="YU17"/>
+      <c r="YV17"/>
+      <c r="YW17"/>
+      <c r="YX17"/>
+      <c r="YY17"/>
+      <c r="YZ17"/>
+      <c r="ZA17"/>
+      <c r="ZB17"/>
+      <c r="ZC17"/>
+      <c r="ZD17"/>
+      <c r="ZE17"/>
+      <c r="ZF17"/>
+      <c r="ZG17"/>
+      <c r="ZH17"/>
+      <c r="ZI17"/>
+      <c r="ZJ17"/>
+      <c r="ZK17"/>
+      <c r="ZL17"/>
+      <c r="ZM17"/>
+      <c r="ZN17"/>
+      <c r="ZO17"/>
+      <c r="ZP17"/>
+      <c r="ZQ17"/>
+      <c r="ZR17"/>
+      <c r="ZS17"/>
+      <c r="ZT17"/>
+      <c r="ZU17"/>
+      <c r="ZV17"/>
+      <c r="ZW17"/>
+      <c r="ZX17"/>
+      <c r="ZY17"/>
+      <c r="ZZ17"/>
+      <c r="AAA17"/>
+      <c r="AAB17"/>
+      <c r="AAC17"/>
+      <c r="AAD17"/>
+      <c r="AAE17"/>
+      <c r="AAF17"/>
+      <c r="AAG17"/>
+      <c r="AAH17"/>
+      <c r="AAI17"/>
+      <c r="AAJ17"/>
+      <c r="AAK17"/>
+      <c r="AAL17"/>
+      <c r="AAM17"/>
+      <c r="AAN17"/>
+      <c r="AAO17"/>
+      <c r="AAP17"/>
+      <c r="AAQ17"/>
+      <c r="AAR17"/>
+      <c r="AAS17"/>
+      <c r="AAT17"/>
+      <c r="AAU17"/>
+      <c r="AAV17"/>
+      <c r="AAW17"/>
+      <c r="AAX17"/>
+      <c r="AAY17"/>
+      <c r="AAZ17"/>
+      <c r="ABA17"/>
+      <c r="ABB17"/>
+      <c r="ABC17"/>
+      <c r="ABD17"/>
+      <c r="ABE17"/>
+      <c r="ABF17"/>
+      <c r="ABG17"/>
+      <c r="ABH17"/>
+      <c r="ABI17"/>
+      <c r="ABJ17"/>
+      <c r="ABK17"/>
+      <c r="ABL17"/>
+      <c r="ABM17"/>
+      <c r="ABN17"/>
+      <c r="ABO17"/>
+      <c r="ABP17"/>
+      <c r="ABQ17"/>
+      <c r="ABR17"/>
+      <c r="ABS17"/>
+      <c r="ABT17"/>
+      <c r="ABU17"/>
+      <c r="ABV17"/>
+      <c r="ABW17"/>
+      <c r="ABX17"/>
+      <c r="ABY17"/>
+      <c r="ABZ17"/>
+      <c r="ACA17"/>
+      <c r="ACB17"/>
+      <c r="ACC17"/>
+      <c r="ACD17"/>
+      <c r="ACE17"/>
+      <c r="ACF17"/>
+      <c r="ACG17"/>
+      <c r="ACH17"/>
+      <c r="ACI17"/>
+      <c r="ACJ17"/>
+      <c r="ACK17"/>
+      <c r="ACL17"/>
+      <c r="ACM17"/>
+      <c r="ACN17"/>
+      <c r="ACO17"/>
+      <c r="ACP17"/>
+      <c r="ACQ17"/>
+      <c r="ACR17"/>
+      <c r="ACS17"/>
+      <c r="ACT17"/>
+      <c r="ACU17"/>
+      <c r="ACV17"/>
+      <c r="ACW17"/>
+      <c r="ACX17"/>
+      <c r="ACY17"/>
+      <c r="ACZ17"/>
+      <c r="ADA17"/>
+      <c r="ADB17"/>
+      <c r="ADC17"/>
+      <c r="ADD17"/>
+      <c r="ADE17"/>
+      <c r="ADF17"/>
+      <c r="ADG17"/>
+      <c r="ADH17"/>
+      <c r="ADI17"/>
+      <c r="ADJ17"/>
+      <c r="ADK17"/>
+      <c r="ADL17"/>
+      <c r="ADM17"/>
+      <c r="ADN17"/>
+      <c r="ADO17"/>
+      <c r="ADP17"/>
+      <c r="ADQ17"/>
+      <c r="ADR17"/>
+      <c r="ADS17"/>
+      <c r="ADT17"/>
+      <c r="ADU17"/>
+      <c r="ADV17"/>
+      <c r="ADW17"/>
+      <c r="ADX17"/>
+      <c r="ADY17"/>
+      <c r="ADZ17"/>
+      <c r="AEA17"/>
+      <c r="AEB17"/>
+      <c r="AEC17"/>
+      <c r="AED17"/>
+      <c r="AEE17"/>
+      <c r="AEF17"/>
+      <c r="AEG17"/>
+      <c r="AEH17"/>
+      <c r="AEI17"/>
+      <c r="AEJ17"/>
+      <c r="AEK17"/>
+      <c r="AEL17"/>
+      <c r="AEM17"/>
+      <c r="AEN17"/>
+      <c r="AEO17"/>
+      <c r="AEP17"/>
+      <c r="AEQ17"/>
+      <c r="AER17"/>
+      <c r="AES17"/>
+      <c r="AET17"/>
+      <c r="AEU17"/>
+      <c r="AEV17"/>
+      <c r="AEW17"/>
+      <c r="AEX17"/>
+      <c r="AEY17"/>
+      <c r="AEZ17"/>
+      <c r="AFA17"/>
+      <c r="AFB17"/>
+      <c r="AFC17"/>
+      <c r="AFD17"/>
+      <c r="AFE17"/>
+      <c r="AFF17"/>
+      <c r="AFG17"/>
+      <c r="AFH17"/>
+      <c r="AFI17"/>
+      <c r="AFJ17"/>
+      <c r="AFK17"/>
+      <c r="AFL17"/>
+      <c r="AFM17"/>
+      <c r="AFN17"/>
+      <c r="AFO17"/>
+      <c r="AFP17"/>
+      <c r="AFQ17"/>
+      <c r="AFR17"/>
+      <c r="AFS17"/>
+      <c r="AFT17"/>
+      <c r="AFU17"/>
+      <c r="AFV17"/>
+      <c r="AFW17"/>
+      <c r="AFX17"/>
+      <c r="AFY17"/>
+      <c r="AFZ17"/>
+      <c r="AGA17"/>
+      <c r="AGB17"/>
+      <c r="AGC17"/>
+      <c r="AGD17"/>
+      <c r="AGE17"/>
+      <c r="AGF17"/>
+      <c r="AGG17"/>
+      <c r="AGH17"/>
+      <c r="AGI17"/>
+      <c r="AGJ17"/>
+      <c r="AGK17"/>
+      <c r="AGL17"/>
+      <c r="AGM17"/>
+      <c r="AGN17"/>
+      <c r="AGO17"/>
+      <c r="AGP17"/>
+      <c r="AGQ17"/>
+      <c r="AGR17"/>
+      <c r="AGS17"/>
+      <c r="AGT17"/>
+      <c r="AGU17"/>
+      <c r="AGV17"/>
+      <c r="AGW17"/>
+      <c r="AGX17"/>
+      <c r="AGY17"/>
+      <c r="AGZ17"/>
+      <c r="AHA17"/>
+      <c r="AHB17"/>
+      <c r="AHC17"/>
+      <c r="AHD17"/>
+      <c r="AHE17"/>
+      <c r="AHF17"/>
+      <c r="AHG17"/>
+      <c r="AHH17"/>
+      <c r="AHI17"/>
+      <c r="AHJ17"/>
+      <c r="AHK17"/>
+      <c r="AHL17"/>
+      <c r="AHM17"/>
+      <c r="AHN17"/>
+      <c r="AHO17"/>
+      <c r="AHP17"/>
+      <c r="AHQ17"/>
+      <c r="AHR17"/>
+      <c r="AHS17"/>
+      <c r="AHT17"/>
+      <c r="AHU17"/>
+      <c r="AHV17"/>
+      <c r="AHW17"/>
+      <c r="AHX17"/>
+      <c r="AHY17"/>
+      <c r="AHZ17"/>
+      <c r="AIA17"/>
+      <c r="AIB17"/>
+      <c r="AIC17"/>
+      <c r="AID17"/>
+      <c r="AIE17"/>
+      <c r="AIF17"/>
+      <c r="AIG17"/>
+      <c r="AIH17"/>
+      <c r="AII17"/>
+      <c r="AIJ17"/>
+      <c r="AIK17"/>
+      <c r="AIL17"/>
+      <c r="AIM17"/>
+      <c r="AIN17"/>
+      <c r="AIO17"/>
+      <c r="AIP17"/>
+      <c r="AIQ17"/>
+      <c r="AIR17"/>
+      <c r="AIS17"/>
+      <c r="AIT17"/>
+      <c r="AIU17"/>
+      <c r="AIV17"/>
+      <c r="AIW17"/>
+      <c r="AIX17"/>
+      <c r="AIY17"/>
+      <c r="AIZ17"/>
+      <c r="AJA17"/>
+      <c r="AJB17"/>
+      <c r="AJC17"/>
+      <c r="AJD17"/>
+      <c r="AJE17"/>
+      <c r="AJF17"/>
+      <c r="AJG17"/>
+      <c r="AJH17"/>
+      <c r="AJI17"/>
+      <c r="AJJ17"/>
+      <c r="AJK17"/>
+      <c r="AJL17"/>
+      <c r="AJM17"/>
+      <c r="AJN17"/>
+      <c r="AJO17"/>
+      <c r="AJP17"/>
+      <c r="AJQ17"/>
+      <c r="AJR17"/>
+      <c r="AJS17"/>
+      <c r="AJT17"/>
+      <c r="AJU17"/>
+      <c r="AJV17"/>
+      <c r="AJW17"/>
+      <c r="AJX17"/>
+      <c r="AJY17"/>
+      <c r="AJZ17"/>
+      <c r="AKA17"/>
+      <c r="AKB17"/>
+      <c r="AKC17"/>
+      <c r="AKD17"/>
+      <c r="AKE17"/>
+      <c r="AKF17"/>
+      <c r="AKG17"/>
+      <c r="AKH17"/>
+      <c r="AKI17"/>
+      <c r="AKJ17"/>
+      <c r="AKK17"/>
+      <c r="AKL17"/>
+      <c r="AKM17"/>
+      <c r="AKN17"/>
+      <c r="AKO17"/>
+      <c r="AKP17"/>
+      <c r="AKQ17"/>
+      <c r="AKR17"/>
+      <c r="AKS17"/>
+      <c r="AKT17"/>
+      <c r="AKU17"/>
+      <c r="AKV17"/>
+      <c r="AKW17"/>
+      <c r="AKX17"/>
+      <c r="AKY17"/>
+      <c r="AKZ17"/>
+      <c r="ALA17"/>
+      <c r="ALB17"/>
+      <c r="ALC17"/>
+      <c r="ALD17"/>
+      <c r="ALE17"/>
+      <c r="ALF17"/>
+      <c r="ALG17"/>
+      <c r="ALH17"/>
+      <c r="ALI17"/>
+      <c r="ALJ17"/>
+      <c r="ALK17"/>
+      <c r="ALL17"/>
+      <c r="ALM17"/>
+      <c r="ALN17"/>
+      <c r="ALO17"/>
+      <c r="ALP17"/>
+      <c r="ALQ17"/>
+      <c r="ALR17"/>
+      <c r="ALS17"/>
+      <c r="ALT17"/>
+      <c r="ALU17"/>
+      <c r="ALV17"/>
+      <c r="ALW17"/>
+      <c r="ALX17"/>
+      <c r="ALY17"/>
+      <c r="ALZ17"/>
+      <c r="AMA17"/>
+      <c r="AMB17"/>
+      <c r="AMC17"/>
+      <c r="AMD17"/>
+      <c r="AME17"/>
+      <c r="AMF17"/>
+      <c r="AMG17"/>
+      <c r="AMH17"/>
+      <c r="AMI17"/>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" s="19" customFormat="1" ht="13.5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="A19" s="29" t="s">
+        <v>10</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="17">
-        <v>42513</v>
-      </c>
-      <c r="F17" s="17">
-        <v>42513</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:1024" ht="54" customHeight="1">
-      <c r="A18" s="14">
-        <v>3</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="17">
-        <v>42513</v>
-      </c>
-      <c r="F18" s="17">
-        <v>42513</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-      <c r="BE18"/>
-      <c r="BF18"/>
-      <c r="BG18"/>
-      <c r="BH18"/>
-      <c r="BI18"/>
-      <c r="BJ18"/>
-      <c r="BK18"/>
-      <c r="BL18"/>
-      <c r="BM18"/>
-      <c r="BN18"/>
-      <c r="BO18"/>
-      <c r="BP18"/>
-      <c r="BQ18"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
-      <c r="BY18"/>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
-      <c r="CG18"/>
-      <c r="CH18"/>
-      <c r="CI18"/>
-      <c r="CJ18"/>
-      <c r="CK18"/>
-      <c r="CL18"/>
-      <c r="CM18"/>
-      <c r="CN18"/>
-      <c r="CO18"/>
-      <c r="CP18"/>
-      <c r="CQ18"/>
-      <c r="CR18"/>
-      <c r="CS18"/>
-      <c r="CT18"/>
-      <c r="CU18"/>
-      <c r="CV18"/>
-      <c r="CW18"/>
-      <c r="CX18"/>
-      <c r="CY18"/>
-      <c r="CZ18"/>
-      <c r="DA18"/>
-      <c r="DB18"/>
-      <c r="DC18"/>
-      <c r="DD18"/>
-      <c r="DE18"/>
-      <c r="DF18"/>
-      <c r="DG18"/>
-      <c r="DH18"/>
-      <c r="DI18"/>
-      <c r="DJ18"/>
-      <c r="DK18"/>
-      <c r="DL18"/>
-      <c r="DM18"/>
-      <c r="DN18"/>
-      <c r="DO18"/>
-      <c r="DP18"/>
-      <c r="DQ18"/>
-      <c r="DR18"/>
-      <c r="DS18"/>
-      <c r="DT18"/>
-      <c r="DU18"/>
-      <c r="DV18"/>
-      <c r="DW18"/>
-      <c r="DX18"/>
-      <c r="DY18"/>
-      <c r="DZ18"/>
-      <c r="EA18"/>
-      <c r="EB18"/>
-      <c r="EC18"/>
-      <c r="ED18"/>
-      <c r="EE18"/>
-      <c r="EF18"/>
-      <c r="EG18"/>
-      <c r="EH18"/>
-      <c r="EI18"/>
-      <c r="EJ18"/>
-      <c r="EK18"/>
-      <c r="EL18"/>
-      <c r="EM18"/>
-      <c r="EN18"/>
-      <c r="EO18"/>
-      <c r="EP18"/>
-      <c r="EQ18"/>
-      <c r="ER18"/>
-      <c r="ES18"/>
-      <c r="ET18"/>
-      <c r="EU18"/>
-      <c r="EV18"/>
-      <c r="EW18"/>
-      <c r="EX18"/>
-      <c r="EY18"/>
-      <c r="EZ18"/>
-      <c r="FA18"/>
-      <c r="FB18"/>
-      <c r="FC18"/>
-      <c r="FD18"/>
-      <c r="FE18"/>
-      <c r="FF18"/>
-      <c r="FG18"/>
-      <c r="FH18"/>
-      <c r="FI18"/>
-      <c r="FJ18"/>
-      <c r="FK18"/>
-      <c r="FL18"/>
-      <c r="FM18"/>
-      <c r="FN18"/>
-      <c r="FO18"/>
-      <c r="FP18"/>
-      <c r="FQ18"/>
-      <c r="FR18"/>
-      <c r="FS18"/>
-      <c r="FT18"/>
-      <c r="FU18"/>
-      <c r="FV18"/>
-      <c r="FW18"/>
-      <c r="FX18"/>
-      <c r="FY18"/>
-      <c r="FZ18"/>
-      <c r="GA18"/>
-      <c r="GB18"/>
-      <c r="GC18"/>
-      <c r="GD18"/>
-      <c r="GE18"/>
-      <c r="GF18"/>
-      <c r="GG18"/>
-      <c r="GH18"/>
-      <c r="GI18"/>
-      <c r="GJ18"/>
-      <c r="GK18"/>
-      <c r="GL18"/>
-      <c r="GM18"/>
-      <c r="GN18"/>
-      <c r="GO18"/>
-      <c r="GP18"/>
-      <c r="GQ18"/>
-      <c r="GR18"/>
-      <c r="GS18"/>
-      <c r="GT18"/>
-      <c r="GU18"/>
-      <c r="GV18"/>
-      <c r="GW18"/>
-      <c r="GX18"/>
-      <c r="GY18"/>
-      <c r="GZ18"/>
-      <c r="HA18"/>
-      <c r="HB18"/>
-      <c r="HC18"/>
-      <c r="HD18"/>
-      <c r="HE18"/>
-      <c r="HF18"/>
-      <c r="HG18"/>
-      <c r="HH18"/>
-      <c r="HI18"/>
-      <c r="HJ18"/>
-      <c r="HK18"/>
-      <c r="HL18"/>
-      <c r="HM18"/>
-      <c r="HN18"/>
-      <c r="HO18"/>
-      <c r="HP18"/>
-      <c r="HQ18"/>
-      <c r="HR18"/>
-      <c r="HS18"/>
-      <c r="HT18"/>
-      <c r="HU18"/>
-      <c r="HV18"/>
-      <c r="HW18"/>
-      <c r="HX18"/>
-      <c r="HY18"/>
-      <c r="HZ18"/>
-      <c r="IA18"/>
-      <c r="IB18"/>
-      <c r="IC18"/>
-      <c r="ID18"/>
-      <c r="IE18"/>
-      <c r="IF18"/>
-      <c r="IG18"/>
-      <c r="IH18"/>
-      <c r="II18"/>
-      <c r="IJ18"/>
-      <c r="IK18"/>
-      <c r="IL18"/>
-      <c r="IM18"/>
-      <c r="IN18"/>
-      <c r="IO18"/>
-      <c r="IP18"/>
-      <c r="IQ18"/>
-      <c r="IR18"/>
-      <c r="IS18"/>
-      <c r="IT18"/>
-      <c r="IU18"/>
-      <c r="IV18"/>
-      <c r="IW18"/>
-      <c r="IX18"/>
-      <c r="IY18"/>
-      <c r="IZ18"/>
-      <c r="JA18"/>
-      <c r="JB18"/>
-      <c r="JC18"/>
-      <c r="JD18"/>
-      <c r="JE18"/>
-      <c r="JF18"/>
-      <c r="JG18"/>
-      <c r="JH18"/>
-      <c r="JI18"/>
-      <c r="JJ18"/>
-      <c r="JK18"/>
-      <c r="JL18"/>
-      <c r="JM18"/>
-      <c r="JN18"/>
-      <c r="JO18"/>
-      <c r="JP18"/>
-      <c r="JQ18"/>
-      <c r="JR18"/>
-      <c r="JS18"/>
-      <c r="JT18"/>
-      <c r="JU18"/>
-      <c r="JV18"/>
-      <c r="JW18"/>
-      <c r="JX18"/>
-      <c r="JY18"/>
-      <c r="JZ18"/>
-      <c r="KA18"/>
-      <c r="KB18"/>
-      <c r="KC18"/>
-      <c r="KD18"/>
-      <c r="KE18"/>
-      <c r="KF18"/>
-      <c r="KG18"/>
-      <c r="KH18"/>
-      <c r="KI18"/>
-      <c r="KJ18"/>
-      <c r="KK18"/>
-      <c r="KL18"/>
-      <c r="KM18"/>
-      <c r="KN18"/>
-      <c r="KO18"/>
-      <c r="KP18"/>
-      <c r="KQ18"/>
-      <c r="KR18"/>
-      <c r="KS18"/>
-      <c r="KT18"/>
-      <c r="KU18"/>
-      <c r="KV18"/>
-      <c r="KW18"/>
-      <c r="KX18"/>
-      <c r="KY18"/>
-      <c r="KZ18"/>
-      <c r="LA18"/>
-      <c r="LB18"/>
-      <c r="LC18"/>
-      <c r="LD18"/>
-      <c r="LE18"/>
-      <c r="LF18"/>
-      <c r="LG18"/>
-      <c r="LH18"/>
-      <c r="LI18"/>
-      <c r="LJ18"/>
-      <c r="LK18"/>
-      <c r="LL18"/>
-      <c r="LM18"/>
-      <c r="LN18"/>
-      <c r="LO18"/>
-      <c r="LP18"/>
-      <c r="LQ18"/>
-      <c r="LR18"/>
-      <c r="LS18"/>
-      <c r="LT18"/>
-      <c r="LU18"/>
-      <c r="LV18"/>
-      <c r="LW18"/>
-      <c r="LX18"/>
-      <c r="LY18"/>
-      <c r="LZ18"/>
-      <c r="MA18"/>
-      <c r="MB18"/>
-      <c r="MC18"/>
-      <c r="MD18"/>
-      <c r="ME18"/>
-      <c r="MF18"/>
-      <c r="MG18"/>
-      <c r="MH18"/>
-      <c r="MI18"/>
-      <c r="MJ18"/>
-      <c r="MK18"/>
-      <c r="ML18"/>
-      <c r="MM18"/>
-      <c r="MN18"/>
-      <c r="MO18"/>
-      <c r="MP18"/>
-      <c r="MQ18"/>
-      <c r="MR18"/>
-      <c r="MS18"/>
-      <c r="MT18"/>
-      <c r="MU18"/>
-      <c r="MV18"/>
-      <c r="MW18"/>
-      <c r="MX18"/>
-      <c r="MY18"/>
-      <c r="MZ18"/>
-      <c r="NA18"/>
-      <c r="NB18"/>
-      <c r="NC18"/>
-      <c r="ND18"/>
-      <c r="NE18"/>
-      <c r="NF18"/>
-      <c r="NG18"/>
-      <c r="NH18"/>
-      <c r="NI18"/>
-      <c r="NJ18"/>
-      <c r="NK18"/>
-      <c r="NL18"/>
-      <c r="NM18"/>
-      <c r="NN18"/>
-      <c r="NO18"/>
-      <c r="NP18"/>
-      <c r="NQ18"/>
-      <c r="NR18"/>
-      <c r="NS18"/>
-      <c r="NT18"/>
-      <c r="NU18"/>
-      <c r="NV18"/>
-      <c r="NW18"/>
-      <c r="NX18"/>
-      <c r="NY18"/>
-      <c r="NZ18"/>
-      <c r="OA18"/>
-      <c r="OB18"/>
-      <c r="OC18"/>
-      <c r="OD18"/>
-      <c r="OE18"/>
-      <c r="OF18"/>
-      <c r="OG18"/>
-      <c r="OH18"/>
-      <c r="OI18"/>
-      <c r="OJ18"/>
-      <c r="OK18"/>
-      <c r="OL18"/>
-      <c r="OM18"/>
-      <c r="ON18"/>
-      <c r="OO18"/>
-      <c r="OP18"/>
-      <c r="OQ18"/>
-      <c r="OR18"/>
-      <c r="OS18"/>
-      <c r="OT18"/>
-      <c r="OU18"/>
-      <c r="OV18"/>
-      <c r="OW18"/>
-      <c r="OX18"/>
-      <c r="OY18"/>
-      <c r="OZ18"/>
-      <c r="PA18"/>
-      <c r="PB18"/>
-      <c r="PC18"/>
-      <c r="PD18"/>
-      <c r="PE18"/>
-      <c r="PF18"/>
-      <c r="PG18"/>
-      <c r="PH18"/>
-      <c r="PI18"/>
-      <c r="PJ18"/>
-      <c r="PK18"/>
-      <c r="PL18"/>
-      <c r="PM18"/>
-      <c r="PN18"/>
-      <c r="PO18"/>
-      <c r="PP18"/>
-      <c r="PQ18"/>
-      <c r="PR18"/>
-      <c r="PS18"/>
-      <c r="PT18"/>
-      <c r="PU18"/>
-      <c r="PV18"/>
-      <c r="PW18"/>
-      <c r="PX18"/>
-      <c r="PY18"/>
-      <c r="PZ18"/>
-      <c r="QA18"/>
-      <c r="QB18"/>
-      <c r="QC18"/>
-      <c r="QD18"/>
-      <c r="QE18"/>
-      <c r="QF18"/>
-      <c r="QG18"/>
-      <c r="QH18"/>
-      <c r="QI18"/>
-      <c r="QJ18"/>
-      <c r="QK18"/>
-      <c r="QL18"/>
-      <c r="QM18"/>
-      <c r="QN18"/>
-      <c r="QO18"/>
-      <c r="QP18"/>
-      <c r="QQ18"/>
-      <c r="QR18"/>
-      <c r="QS18"/>
-      <c r="QT18"/>
-      <c r="QU18"/>
-      <c r="QV18"/>
-      <c r="QW18"/>
-      <c r="QX18"/>
-      <c r="QY18"/>
-      <c r="QZ18"/>
-      <c r="RA18"/>
-      <c r="RB18"/>
-      <c r="RC18"/>
-      <c r="RD18"/>
-      <c r="RE18"/>
-      <c r="RF18"/>
-      <c r="RG18"/>
-      <c r="RH18"/>
-      <c r="RI18"/>
-      <c r="RJ18"/>
-      <c r="RK18"/>
-      <c r="RL18"/>
-      <c r="RM18"/>
-      <c r="RN18"/>
-      <c r="RO18"/>
-      <c r="RP18"/>
-      <c r="RQ18"/>
-      <c r="RR18"/>
-      <c r="RS18"/>
-      <c r="RT18"/>
-      <c r="RU18"/>
-      <c r="RV18"/>
-      <c r="RW18"/>
-      <c r="RX18"/>
-      <c r="RY18"/>
-      <c r="RZ18"/>
-      <c r="SA18"/>
-      <c r="SB18"/>
-      <c r="SC18"/>
-      <c r="SD18"/>
-      <c r="SE18"/>
-      <c r="SF18"/>
-      <c r="SG18"/>
-      <c r="SH18"/>
-      <c r="SI18"/>
-      <c r="SJ18"/>
-      <c r="SK18"/>
-      <c r="SL18"/>
-      <c r="SM18"/>
-      <c r="SN18"/>
-      <c r="SO18"/>
-      <c r="SP18"/>
-      <c r="SQ18"/>
-      <c r="SR18"/>
-      <c r="SS18"/>
-      <c r="ST18"/>
-      <c r="SU18"/>
-      <c r="SV18"/>
-      <c r="SW18"/>
-      <c r="SX18"/>
-      <c r="SY18"/>
-      <c r="SZ18"/>
-      <c r="TA18"/>
-      <c r="TB18"/>
-      <c r="TC18"/>
-      <c r="TD18"/>
-      <c r="TE18"/>
-      <c r="TF18"/>
-      <c r="TG18"/>
-      <c r="TH18"/>
-      <c r="TI18"/>
-      <c r="TJ18"/>
-      <c r="TK18"/>
-      <c r="TL18"/>
-      <c r="TM18"/>
-      <c r="TN18"/>
-      <c r="TO18"/>
-      <c r="TP18"/>
-      <c r="TQ18"/>
-      <c r="TR18"/>
-      <c r="TS18"/>
-      <c r="TT18"/>
-      <c r="TU18"/>
-      <c r="TV18"/>
-      <c r="TW18"/>
-      <c r="TX18"/>
-      <c r="TY18"/>
-      <c r="TZ18"/>
-      <c r="UA18"/>
-      <c r="UB18"/>
-      <c r="UC18"/>
-      <c r="UD18"/>
-      <c r="UE18"/>
-      <c r="UF18"/>
-      <c r="UG18"/>
-      <c r="UH18"/>
-      <c r="UI18"/>
-      <c r="UJ18"/>
-      <c r="UK18"/>
-      <c r="UL18"/>
-      <c r="UM18"/>
-      <c r="UN18"/>
-      <c r="UO18"/>
-      <c r="UP18"/>
-      <c r="UQ18"/>
-      <c r="UR18"/>
-      <c r="US18"/>
-      <c r="UT18"/>
-      <c r="UU18"/>
-      <c r="UV18"/>
-      <c r="UW18"/>
-      <c r="UX18"/>
-      <c r="UY18"/>
-      <c r="UZ18"/>
-      <c r="VA18"/>
-      <c r="VB18"/>
-      <c r="VC18"/>
-      <c r="VD18"/>
-      <c r="VE18"/>
-      <c r="VF18"/>
-      <c r="VG18"/>
-      <c r="VH18"/>
-      <c r="VI18"/>
-      <c r="VJ18"/>
-      <c r="VK18"/>
-      <c r="VL18"/>
-      <c r="VM18"/>
-      <c r="VN18"/>
-      <c r="VO18"/>
-      <c r="VP18"/>
-      <c r="VQ18"/>
-      <c r="VR18"/>
-      <c r="VS18"/>
-      <c r="VT18"/>
-      <c r="VU18"/>
-      <c r="VV18"/>
-      <c r="VW18"/>
-      <c r="VX18"/>
-      <c r="VY18"/>
-      <c r="VZ18"/>
-      <c r="WA18"/>
-      <c r="WB18"/>
-      <c r="WC18"/>
-      <c r="WD18"/>
-      <c r="WE18"/>
-      <c r="WF18"/>
-      <c r="WG18"/>
-      <c r="WH18"/>
-      <c r="WI18"/>
-      <c r="WJ18"/>
-      <c r="WK18"/>
-      <c r="WL18"/>
-      <c r="WM18"/>
-      <c r="WN18"/>
-      <c r="WO18"/>
-      <c r="WP18"/>
-      <c r="WQ18"/>
-      <c r="WR18"/>
-      <c r="WS18"/>
-      <c r="WT18"/>
-      <c r="WU18"/>
-      <c r="WV18"/>
-      <c r="WW18"/>
-      <c r="WX18"/>
-      <c r="WY18"/>
-      <c r="WZ18"/>
-      <c r="XA18"/>
-      <c r="XB18"/>
-      <c r="XC18"/>
-      <c r="XD18"/>
-      <c r="XE18"/>
-      <c r="XF18"/>
-      <c r="XG18"/>
-      <c r="XH18"/>
-      <c r="XI18"/>
-      <c r="XJ18"/>
-      <c r="XK18"/>
-      <c r="XL18"/>
-      <c r="XM18"/>
-      <c r="XN18"/>
-      <c r="XO18"/>
-      <c r="XP18"/>
-      <c r="XQ18"/>
-      <c r="XR18"/>
-      <c r="XS18"/>
-      <c r="XT18"/>
-      <c r="XU18"/>
-      <c r="XV18"/>
-      <c r="XW18"/>
-      <c r="XX18"/>
-      <c r="XY18"/>
-      <c r="XZ18"/>
-      <c r="YA18"/>
-      <c r="YB18"/>
-      <c r="YC18"/>
-      <c r="YD18"/>
-      <c r="YE18"/>
-      <c r="YF18"/>
-      <c r="YG18"/>
-      <c r="YH18"/>
-      <c r="YI18"/>
-      <c r="YJ18"/>
-      <c r="YK18"/>
-      <c r="YL18"/>
-      <c r="YM18"/>
-      <c r="YN18"/>
-      <c r="YO18"/>
-      <c r="YP18"/>
-      <c r="YQ18"/>
-      <c r="YR18"/>
-      <c r="YS18"/>
-      <c r="YT18"/>
-      <c r="YU18"/>
-      <c r="YV18"/>
-      <c r="YW18"/>
-      <c r="YX18"/>
-      <c r="YY18"/>
-      <c r="YZ18"/>
-      <c r="ZA18"/>
-      <c r="ZB18"/>
-      <c r="ZC18"/>
-      <c r="ZD18"/>
-      <c r="ZE18"/>
-      <c r="ZF18"/>
-      <c r="ZG18"/>
-      <c r="ZH18"/>
-      <c r="ZI18"/>
-      <c r="ZJ18"/>
-      <c r="ZK18"/>
-      <c r="ZL18"/>
-      <c r="ZM18"/>
-      <c r="ZN18"/>
-      <c r="ZO18"/>
-      <c r="ZP18"/>
-      <c r="ZQ18"/>
-      <c r="ZR18"/>
-      <c r="ZS18"/>
-      <c r="ZT18"/>
-      <c r="ZU18"/>
-      <c r="ZV18"/>
-      <c r="ZW18"/>
-      <c r="ZX18"/>
-      <c r="ZY18"/>
-      <c r="ZZ18"/>
-      <c r="AAA18"/>
-      <c r="AAB18"/>
-      <c r="AAC18"/>
-      <c r="AAD18"/>
-      <c r="AAE18"/>
-      <c r="AAF18"/>
-      <c r="AAG18"/>
-      <c r="AAH18"/>
-      <c r="AAI18"/>
-      <c r="AAJ18"/>
-      <c r="AAK18"/>
-      <c r="AAL18"/>
-      <c r="AAM18"/>
-      <c r="AAN18"/>
-      <c r="AAO18"/>
-      <c r="AAP18"/>
-      <c r="AAQ18"/>
-      <c r="AAR18"/>
-      <c r="AAS18"/>
-      <c r="AAT18"/>
-      <c r="AAU18"/>
-      <c r="AAV18"/>
-      <c r="AAW18"/>
-      <c r="AAX18"/>
-      <c r="AAY18"/>
-      <c r="AAZ18"/>
-      <c r="ABA18"/>
-      <c r="ABB18"/>
-      <c r="ABC18"/>
-      <c r="ABD18"/>
-      <c r="ABE18"/>
-      <c r="ABF18"/>
-      <c r="ABG18"/>
-      <c r="ABH18"/>
-      <c r="ABI18"/>
-      <c r="ABJ18"/>
-      <c r="ABK18"/>
-      <c r="ABL18"/>
-      <c r="ABM18"/>
-      <c r="ABN18"/>
-      <c r="ABO18"/>
-      <c r="ABP18"/>
-      <c r="ABQ18"/>
-      <c r="ABR18"/>
-      <c r="ABS18"/>
-      <c r="ABT18"/>
-      <c r="ABU18"/>
-      <c r="ABV18"/>
-      <c r="ABW18"/>
-      <c r="ABX18"/>
-      <c r="ABY18"/>
-      <c r="ABZ18"/>
-      <c r="ACA18"/>
-      <c r="ACB18"/>
-      <c r="ACC18"/>
-      <c r="ACD18"/>
-      <c r="ACE18"/>
-      <c r="ACF18"/>
-      <c r="ACG18"/>
-      <c r="ACH18"/>
-      <c r="ACI18"/>
-      <c r="ACJ18"/>
-      <c r="ACK18"/>
-      <c r="ACL18"/>
-      <c r="ACM18"/>
-      <c r="ACN18"/>
-      <c r="ACO18"/>
-      <c r="ACP18"/>
-      <c r="ACQ18"/>
-      <c r="ACR18"/>
-      <c r="ACS18"/>
-      <c r="ACT18"/>
-      <c r="ACU18"/>
-      <c r="ACV18"/>
-      <c r="ACW18"/>
-      <c r="ACX18"/>
-      <c r="ACY18"/>
-      <c r="ACZ18"/>
-      <c r="ADA18"/>
-      <c r="ADB18"/>
-      <c r="ADC18"/>
-      <c r="ADD18"/>
-      <c r="ADE18"/>
-      <c r="ADF18"/>
-      <c r="ADG18"/>
-      <c r="ADH18"/>
-      <c r="ADI18"/>
-      <c r="ADJ18"/>
-      <c r="ADK18"/>
-      <c r="ADL18"/>
-      <c r="ADM18"/>
-      <c r="ADN18"/>
-      <c r="ADO18"/>
-      <c r="ADP18"/>
-      <c r="ADQ18"/>
-      <c r="ADR18"/>
-      <c r="ADS18"/>
-      <c r="ADT18"/>
-      <c r="ADU18"/>
-      <c r="ADV18"/>
-      <c r="ADW18"/>
-      <c r="ADX18"/>
-      <c r="ADY18"/>
-      <c r="ADZ18"/>
-      <c r="AEA18"/>
-      <c r="AEB18"/>
-      <c r="AEC18"/>
-      <c r="AED18"/>
-      <c r="AEE18"/>
-      <c r="AEF18"/>
-      <c r="AEG18"/>
-      <c r="AEH18"/>
-      <c r="AEI18"/>
-      <c r="AEJ18"/>
-      <c r="AEK18"/>
-      <c r="AEL18"/>
-      <c r="AEM18"/>
-      <c r="AEN18"/>
-      <c r="AEO18"/>
-      <c r="AEP18"/>
-      <c r="AEQ18"/>
-      <c r="AER18"/>
-      <c r="AES18"/>
-      <c r="AET18"/>
-      <c r="AEU18"/>
-      <c r="AEV18"/>
-      <c r="AEW18"/>
-      <c r="AEX18"/>
-      <c r="AEY18"/>
-      <c r="AEZ18"/>
-      <c r="AFA18"/>
-      <c r="AFB18"/>
-      <c r="AFC18"/>
-      <c r="AFD18"/>
-      <c r="AFE18"/>
-      <c r="AFF18"/>
-      <c r="AFG18"/>
-      <c r="AFH18"/>
-      <c r="AFI18"/>
-      <c r="AFJ18"/>
-      <c r="AFK18"/>
-      <c r="AFL18"/>
-      <c r="AFM18"/>
-      <c r="AFN18"/>
-      <c r="AFO18"/>
-      <c r="AFP18"/>
-      <c r="AFQ18"/>
-      <c r="AFR18"/>
-      <c r="AFS18"/>
-      <c r="AFT18"/>
-      <c r="AFU18"/>
-      <c r="AFV18"/>
-      <c r="AFW18"/>
-      <c r="AFX18"/>
-      <c r="AFY18"/>
-      <c r="AFZ18"/>
-      <c r="AGA18"/>
-      <c r="AGB18"/>
-      <c r="AGC18"/>
-      <c r="AGD18"/>
-      <c r="AGE18"/>
-      <c r="AGF18"/>
-      <c r="AGG18"/>
-      <c r="AGH18"/>
-      <c r="AGI18"/>
-      <c r="AGJ18"/>
-      <c r="AGK18"/>
-      <c r="AGL18"/>
-      <c r="AGM18"/>
-      <c r="AGN18"/>
-      <c r="AGO18"/>
-      <c r="AGP18"/>
-      <c r="AGQ18"/>
-      <c r="AGR18"/>
-      <c r="AGS18"/>
-      <c r="AGT18"/>
-      <c r="AGU18"/>
-      <c r="AGV18"/>
-      <c r="AGW18"/>
-      <c r="AGX18"/>
-      <c r="AGY18"/>
-      <c r="AGZ18"/>
-      <c r="AHA18"/>
-      <c r="AHB18"/>
-      <c r="AHC18"/>
-      <c r="AHD18"/>
-      <c r="AHE18"/>
-      <c r="AHF18"/>
-      <c r="AHG18"/>
-      <c r="AHH18"/>
-      <c r="AHI18"/>
-      <c r="AHJ18"/>
-      <c r="AHK18"/>
-      <c r="AHL18"/>
-      <c r="AHM18"/>
-      <c r="AHN18"/>
-      <c r="AHO18"/>
-      <c r="AHP18"/>
-      <c r="AHQ18"/>
-      <c r="AHR18"/>
-      <c r="AHS18"/>
-      <c r="AHT18"/>
-      <c r="AHU18"/>
-      <c r="AHV18"/>
-      <c r="AHW18"/>
-      <c r="AHX18"/>
-      <c r="AHY18"/>
-      <c r="AHZ18"/>
-      <c r="AIA18"/>
-      <c r="AIB18"/>
-      <c r="AIC18"/>
-      <c r="AID18"/>
-      <c r="AIE18"/>
-      <c r="AIF18"/>
-      <c r="AIG18"/>
-      <c r="AIH18"/>
-      <c r="AII18"/>
-      <c r="AIJ18"/>
-      <c r="AIK18"/>
-      <c r="AIL18"/>
-      <c r="AIM18"/>
-      <c r="AIN18"/>
-      <c r="AIO18"/>
-      <c r="AIP18"/>
-      <c r="AIQ18"/>
-      <c r="AIR18"/>
-      <c r="AIS18"/>
-      <c r="AIT18"/>
-      <c r="AIU18"/>
-      <c r="AIV18"/>
-      <c r="AIW18"/>
-      <c r="AIX18"/>
-      <c r="AIY18"/>
-      <c r="AIZ18"/>
-      <c r="AJA18"/>
-      <c r="AJB18"/>
-      <c r="AJC18"/>
-      <c r="AJD18"/>
-      <c r="AJE18"/>
-      <c r="AJF18"/>
-      <c r="AJG18"/>
-      <c r="AJH18"/>
-      <c r="AJI18"/>
-      <c r="AJJ18"/>
-      <c r="AJK18"/>
-      <c r="AJL18"/>
-      <c r="AJM18"/>
-      <c r="AJN18"/>
-      <c r="AJO18"/>
-      <c r="AJP18"/>
-      <c r="AJQ18"/>
-      <c r="AJR18"/>
-      <c r="AJS18"/>
-      <c r="AJT18"/>
-      <c r="AJU18"/>
-      <c r="AJV18"/>
-      <c r="AJW18"/>
-      <c r="AJX18"/>
-      <c r="AJY18"/>
-      <c r="AJZ18"/>
-      <c r="AKA18"/>
-      <c r="AKB18"/>
-      <c r="AKC18"/>
-      <c r="AKD18"/>
-      <c r="AKE18"/>
-      <c r="AKF18"/>
-      <c r="AKG18"/>
-      <c r="AKH18"/>
-      <c r="AKI18"/>
-      <c r="AKJ18"/>
-      <c r="AKK18"/>
-      <c r="AKL18"/>
-      <c r="AKM18"/>
-      <c r="AKN18"/>
-      <c r="AKO18"/>
-      <c r="AKP18"/>
-      <c r="AKQ18"/>
-      <c r="AKR18"/>
-      <c r="AKS18"/>
-      <c r="AKT18"/>
-      <c r="AKU18"/>
-      <c r="AKV18"/>
-      <c r="AKW18"/>
-      <c r="AKX18"/>
-      <c r="AKY18"/>
-      <c r="AKZ18"/>
-      <c r="ALA18"/>
-      <c r="ALB18"/>
-      <c r="ALC18"/>
-      <c r="ALD18"/>
-      <c r="ALE18"/>
-      <c r="ALF18"/>
-      <c r="ALG18"/>
-      <c r="ALH18"/>
-      <c r="ALI18"/>
-      <c r="ALJ18"/>
-      <c r="ALK18"/>
-      <c r="ALL18"/>
-      <c r="ALM18"/>
-      <c r="ALN18"/>
-      <c r="ALO18"/>
-      <c r="ALP18"/>
-      <c r="ALQ18"/>
-      <c r="ALR18"/>
-      <c r="ALS18"/>
-      <c r="ALT18"/>
-      <c r="ALU18"/>
-      <c r="ALV18"/>
-      <c r="ALW18"/>
-      <c r="ALX18"/>
-      <c r="ALY18"/>
-      <c r="ALZ18"/>
-      <c r="AMA18"/>
-      <c r="AMB18"/>
-      <c r="AMC18"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-    </row>
-    <row r="19" spans="1:1024" ht="78.75" customHeight="1">
-      <c r="A19" s="14">
-        <v>4</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="17">
-        <v>42514</v>
-      </c>
-      <c r="F19" s="17">
-        <v>42514</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="10"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
       <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
@@ -18418,47 +18293,33 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" ht="54" customHeight="1">
-      <c r="A20" s="14">
-        <v>5</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="17">
-        <v>42514</v>
-      </c>
-      <c r="F20" s="17">
-        <v>42514</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
+    <row r="20" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
@@ -19458,47 +19319,35 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024">
-      <c r="A21" s="14">
-        <v>6</v>
+    <row r="21" spans="1:1024" ht="15" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>11</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="17">
-        <v>42514</v>
-      </c>
-      <c r="F21" s="17">
-        <v>42514</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
@@ -20499,44 +20348,32 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024">
-      <c r="A22" s="14">
-        <v>7</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="17">
-        <v>42514</v>
-      </c>
-      <c r="F22" s="17">
-        <v>42514</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
@@ -21537,32 +21374,34 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1024">
-      <c r="A23" s="22"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
+      <c r="A23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
       <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
@@ -22562,340 +22401,1282 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="26" customFormat="1" ht="13.5">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
+    <row r="24" spans="1:1024" ht="15" thickBot="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24"/>
+      <c r="FJ24"/>
+      <c r="FK24"/>
+      <c r="FL24"/>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24"/>
+      <c r="FR24"/>
+      <c r="FS24"/>
+      <c r="FT24"/>
+      <c r="FU24"/>
+      <c r="FV24"/>
+      <c r="FW24"/>
+      <c r="FX24"/>
+      <c r="FY24"/>
+      <c r="FZ24"/>
+      <c r="GA24"/>
+      <c r="GB24"/>
+      <c r="GC24"/>
+      <c r="GD24"/>
+      <c r="GE24"/>
+      <c r="GF24"/>
+      <c r="GG24"/>
+      <c r="GH24"/>
+      <c r="GI24"/>
+      <c r="GJ24"/>
+      <c r="GK24"/>
+      <c r="GL24"/>
+      <c r="GM24"/>
+      <c r="GN24"/>
+      <c r="GO24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GR24"/>
+      <c r="GS24"/>
+      <c r="GT24"/>
+      <c r="GU24"/>
+      <c r="GV24"/>
+      <c r="GW24"/>
+      <c r="GX24"/>
+      <c r="GY24"/>
+      <c r="GZ24"/>
+      <c r="HA24"/>
+      <c r="HB24"/>
+      <c r="HC24"/>
+      <c r="HD24"/>
+      <c r="HE24"/>
+      <c r="HF24"/>
+      <c r="HG24"/>
+      <c r="HH24"/>
+      <c r="HI24"/>
+      <c r="HJ24"/>
+      <c r="HK24"/>
+      <c r="HL24"/>
+      <c r="HM24"/>
+      <c r="HN24"/>
+      <c r="HO24"/>
+      <c r="HP24"/>
+      <c r="HQ24"/>
+      <c r="HR24"/>
+      <c r="HS24"/>
+      <c r="HT24"/>
+      <c r="HU24"/>
+      <c r="HV24"/>
+      <c r="HW24"/>
+      <c r="HX24"/>
+      <c r="HY24"/>
+      <c r="HZ24"/>
+      <c r="IA24"/>
+      <c r="IB24"/>
+      <c r="IC24"/>
+      <c r="ID24"/>
+      <c r="IE24"/>
+      <c r="IF24"/>
+      <c r="IG24"/>
+      <c r="IH24"/>
+      <c r="II24"/>
+      <c r="IJ24"/>
+      <c r="IK24"/>
+      <c r="IL24"/>
+      <c r="IM24"/>
+      <c r="IN24"/>
+      <c r="IO24"/>
+      <c r="IP24"/>
+      <c r="IQ24"/>
+      <c r="IR24"/>
+      <c r="IS24"/>
+      <c r="IT24"/>
+      <c r="IU24"/>
+      <c r="IV24"/>
+      <c r="IW24"/>
+      <c r="IX24"/>
+      <c r="IY24"/>
+      <c r="IZ24"/>
+      <c r="JA24"/>
+      <c r="JB24"/>
+      <c r="JC24"/>
+      <c r="JD24"/>
+      <c r="JE24"/>
+      <c r="JF24"/>
+      <c r="JG24"/>
+      <c r="JH24"/>
+      <c r="JI24"/>
+      <c r="JJ24"/>
+      <c r="JK24"/>
+      <c r="JL24"/>
+      <c r="JM24"/>
+      <c r="JN24"/>
+      <c r="JO24"/>
+      <c r="JP24"/>
+      <c r="JQ24"/>
+      <c r="JR24"/>
+      <c r="JS24"/>
+      <c r="JT24"/>
+      <c r="JU24"/>
+      <c r="JV24"/>
+      <c r="JW24"/>
+      <c r="JX24"/>
+      <c r="JY24"/>
+      <c r="JZ24"/>
+      <c r="KA24"/>
+      <c r="KB24"/>
+      <c r="KC24"/>
+      <c r="KD24"/>
+      <c r="KE24"/>
+      <c r="KF24"/>
+      <c r="KG24"/>
+      <c r="KH24"/>
+      <c r="KI24"/>
+      <c r="KJ24"/>
+      <c r="KK24"/>
+      <c r="KL24"/>
+      <c r="KM24"/>
+      <c r="KN24"/>
+      <c r="KO24"/>
+      <c r="KP24"/>
+      <c r="KQ24"/>
+      <c r="KR24"/>
+      <c r="KS24"/>
+      <c r="KT24"/>
+      <c r="KU24"/>
+      <c r="KV24"/>
+      <c r="KW24"/>
+      <c r="KX24"/>
+      <c r="KY24"/>
+      <c r="KZ24"/>
+      <c r="LA24"/>
+      <c r="LB24"/>
+      <c r="LC24"/>
+      <c r="LD24"/>
+      <c r="LE24"/>
+      <c r="LF24"/>
+      <c r="LG24"/>
+      <c r="LH24"/>
+      <c r="LI24"/>
+      <c r="LJ24"/>
+      <c r="LK24"/>
+      <c r="LL24"/>
+      <c r="LM24"/>
+      <c r="LN24"/>
+      <c r="LO24"/>
+      <c r="LP24"/>
+      <c r="LQ24"/>
+      <c r="LR24"/>
+      <c r="LS24"/>
+      <c r="LT24"/>
+      <c r="LU24"/>
+      <c r="LV24"/>
+      <c r="LW24"/>
+      <c r="LX24"/>
+      <c r="LY24"/>
+      <c r="LZ24"/>
+      <c r="MA24"/>
+      <c r="MB24"/>
+      <c r="MC24"/>
+      <c r="MD24"/>
+      <c r="ME24"/>
+      <c r="MF24"/>
+      <c r="MG24"/>
+      <c r="MH24"/>
+      <c r="MI24"/>
+      <c r="MJ24"/>
+      <c r="MK24"/>
+      <c r="ML24"/>
+      <c r="MM24"/>
+      <c r="MN24"/>
+      <c r="MO24"/>
+      <c r="MP24"/>
+      <c r="MQ24"/>
+      <c r="MR24"/>
+      <c r="MS24"/>
+      <c r="MT24"/>
+      <c r="MU24"/>
+      <c r="MV24"/>
+      <c r="MW24"/>
+      <c r="MX24"/>
+      <c r="MY24"/>
+      <c r="MZ24"/>
+      <c r="NA24"/>
+      <c r="NB24"/>
+      <c r="NC24"/>
+      <c r="ND24"/>
+      <c r="NE24"/>
+      <c r="NF24"/>
+      <c r="NG24"/>
+      <c r="NH24"/>
+      <c r="NI24"/>
+      <c r="NJ24"/>
+      <c r="NK24"/>
+      <c r="NL24"/>
+      <c r="NM24"/>
+      <c r="NN24"/>
+      <c r="NO24"/>
+      <c r="NP24"/>
+      <c r="NQ24"/>
+      <c r="NR24"/>
+      <c r="NS24"/>
+      <c r="NT24"/>
+      <c r="NU24"/>
+      <c r="NV24"/>
+      <c r="NW24"/>
+      <c r="NX24"/>
+      <c r="NY24"/>
+      <c r="NZ24"/>
+      <c r="OA24"/>
+      <c r="OB24"/>
+      <c r="OC24"/>
+      <c r="OD24"/>
+      <c r="OE24"/>
+      <c r="OF24"/>
+      <c r="OG24"/>
+      <c r="OH24"/>
+      <c r="OI24"/>
+      <c r="OJ24"/>
+      <c r="OK24"/>
+      <c r="OL24"/>
+      <c r="OM24"/>
+      <c r="ON24"/>
+      <c r="OO24"/>
+      <c r="OP24"/>
+      <c r="OQ24"/>
+      <c r="OR24"/>
+      <c r="OS24"/>
+      <c r="OT24"/>
+      <c r="OU24"/>
+      <c r="OV24"/>
+      <c r="OW24"/>
+      <c r="OX24"/>
+      <c r="OY24"/>
+      <c r="OZ24"/>
+      <c r="PA24"/>
+      <c r="PB24"/>
+      <c r="PC24"/>
+      <c r="PD24"/>
+      <c r="PE24"/>
+      <c r="PF24"/>
+      <c r="PG24"/>
+      <c r="PH24"/>
+      <c r="PI24"/>
+      <c r="PJ24"/>
+      <c r="PK24"/>
+      <c r="PL24"/>
+      <c r="PM24"/>
+      <c r="PN24"/>
+      <c r="PO24"/>
+      <c r="PP24"/>
+      <c r="PQ24"/>
+      <c r="PR24"/>
+      <c r="PS24"/>
+      <c r="PT24"/>
+      <c r="PU24"/>
+      <c r="PV24"/>
+      <c r="PW24"/>
+      <c r="PX24"/>
+      <c r="PY24"/>
+      <c r="PZ24"/>
+      <c r="QA24"/>
+      <c r="QB24"/>
+      <c r="QC24"/>
+      <c r="QD24"/>
+      <c r="QE24"/>
+      <c r="QF24"/>
+      <c r="QG24"/>
+      <c r="QH24"/>
+      <c r="QI24"/>
+      <c r="QJ24"/>
+      <c r="QK24"/>
+      <c r="QL24"/>
+      <c r="QM24"/>
+      <c r="QN24"/>
+      <c r="QO24"/>
+      <c r="QP24"/>
+      <c r="QQ24"/>
+      <c r="QR24"/>
+      <c r="QS24"/>
+      <c r="QT24"/>
+      <c r="QU24"/>
+      <c r="QV24"/>
+      <c r="QW24"/>
+      <c r="QX24"/>
+      <c r="QY24"/>
+      <c r="QZ24"/>
+      <c r="RA24"/>
+      <c r="RB24"/>
+      <c r="RC24"/>
+      <c r="RD24"/>
+      <c r="RE24"/>
+      <c r="RF24"/>
+      <c r="RG24"/>
+      <c r="RH24"/>
+      <c r="RI24"/>
+      <c r="RJ24"/>
+      <c r="RK24"/>
+      <c r="RL24"/>
+      <c r="RM24"/>
+      <c r="RN24"/>
+      <c r="RO24"/>
+      <c r="RP24"/>
+      <c r="RQ24"/>
+      <c r="RR24"/>
+      <c r="RS24"/>
+      <c r="RT24"/>
+      <c r="RU24"/>
+      <c r="RV24"/>
+      <c r="RW24"/>
+      <c r="RX24"/>
+      <c r="RY24"/>
+      <c r="RZ24"/>
+      <c r="SA24"/>
+      <c r="SB24"/>
+      <c r="SC24"/>
+      <c r="SD24"/>
+      <c r="SE24"/>
+      <c r="SF24"/>
+      <c r="SG24"/>
+      <c r="SH24"/>
+      <c r="SI24"/>
+      <c r="SJ24"/>
+      <c r="SK24"/>
+      <c r="SL24"/>
+      <c r="SM24"/>
+      <c r="SN24"/>
+      <c r="SO24"/>
+      <c r="SP24"/>
+      <c r="SQ24"/>
+      <c r="SR24"/>
+      <c r="SS24"/>
+      <c r="ST24"/>
+      <c r="SU24"/>
+      <c r="SV24"/>
+      <c r="SW24"/>
+      <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
+      <c r="UH24"/>
+      <c r="UI24"/>
+      <c r="UJ24"/>
+      <c r="UK24"/>
+      <c r="UL24"/>
+      <c r="UM24"/>
+      <c r="UN24"/>
+      <c r="UO24"/>
+      <c r="UP24"/>
+      <c r="UQ24"/>
+      <c r="UR24"/>
+      <c r="US24"/>
+      <c r="UT24"/>
+      <c r="UU24"/>
+      <c r="UV24"/>
+      <c r="UW24"/>
+      <c r="UX24"/>
+      <c r="UY24"/>
+      <c r="UZ24"/>
+      <c r="VA24"/>
+      <c r="VB24"/>
+      <c r="VC24"/>
+      <c r="VD24"/>
+      <c r="VE24"/>
+      <c r="VF24"/>
+      <c r="VG24"/>
+      <c r="VH24"/>
+      <c r="VI24"/>
+      <c r="VJ24"/>
+      <c r="VK24"/>
+      <c r="VL24"/>
+      <c r="VM24"/>
+      <c r="VN24"/>
+      <c r="VO24"/>
+      <c r="VP24"/>
+      <c r="VQ24"/>
+      <c r="VR24"/>
+      <c r="VS24"/>
+      <c r="VT24"/>
+      <c r="VU24"/>
+      <c r="VV24"/>
+      <c r="VW24"/>
+      <c r="VX24"/>
+      <c r="VY24"/>
+      <c r="VZ24"/>
+      <c r="WA24"/>
+      <c r="WB24"/>
+      <c r="WC24"/>
+      <c r="WD24"/>
+      <c r="WE24"/>
+      <c r="WF24"/>
+      <c r="WG24"/>
+      <c r="WH24"/>
+      <c r="WI24"/>
+      <c r="WJ24"/>
+      <c r="WK24"/>
+      <c r="WL24"/>
+      <c r="WM24"/>
+      <c r="WN24"/>
+      <c r="WO24"/>
+      <c r="WP24"/>
+      <c r="WQ24"/>
+      <c r="WR24"/>
+      <c r="WS24"/>
+      <c r="WT24"/>
+      <c r="WU24"/>
+      <c r="WV24"/>
+      <c r="WW24"/>
+      <c r="WX24"/>
+      <c r="WY24"/>
+      <c r="WZ24"/>
+      <c r="XA24"/>
+      <c r="XB24"/>
+      <c r="XC24"/>
+      <c r="XD24"/>
+      <c r="XE24"/>
+      <c r="XF24"/>
+      <c r="XG24"/>
+      <c r="XH24"/>
+      <c r="XI24"/>
+      <c r="XJ24"/>
+      <c r="XK24"/>
+      <c r="XL24"/>
+      <c r="XM24"/>
+      <c r="XN24"/>
+      <c r="XO24"/>
+      <c r="XP24"/>
+      <c r="XQ24"/>
+      <c r="XR24"/>
+      <c r="XS24"/>
+      <c r="XT24"/>
+      <c r="XU24"/>
+      <c r="XV24"/>
+      <c r="XW24"/>
+      <c r="XX24"/>
+      <c r="XY24"/>
+      <c r="XZ24"/>
+      <c r="YA24"/>
+      <c r="YB24"/>
+      <c r="YC24"/>
+      <c r="YD24"/>
+      <c r="YE24"/>
+      <c r="YF24"/>
+      <c r="YG24"/>
+      <c r="YH24"/>
+      <c r="YI24"/>
+      <c r="YJ24"/>
+      <c r="YK24"/>
+      <c r="YL24"/>
+      <c r="YM24"/>
+      <c r="YN24"/>
+      <c r="YO24"/>
+      <c r="YP24"/>
+      <c r="YQ24"/>
+      <c r="YR24"/>
+      <c r="YS24"/>
+      <c r="YT24"/>
+      <c r="YU24"/>
+      <c r="YV24"/>
+      <c r="YW24"/>
+      <c r="YX24"/>
+      <c r="YY24"/>
+      <c r="YZ24"/>
+      <c r="ZA24"/>
+      <c r="ZB24"/>
+      <c r="ZC24"/>
+      <c r="ZD24"/>
+      <c r="ZE24"/>
+      <c r="ZF24"/>
+      <c r="ZG24"/>
+      <c r="ZH24"/>
+      <c r="ZI24"/>
+      <c r="ZJ24"/>
+      <c r="ZK24"/>
+      <c r="ZL24"/>
+      <c r="ZM24"/>
+      <c r="ZN24"/>
+      <c r="ZO24"/>
+      <c r="ZP24"/>
+      <c r="ZQ24"/>
+      <c r="ZR24"/>
+      <c r="ZS24"/>
+      <c r="ZT24"/>
+      <c r="ZU24"/>
+      <c r="ZV24"/>
+      <c r="ZW24"/>
+      <c r="ZX24"/>
+      <c r="ZY24"/>
+      <c r="ZZ24"/>
+      <c r="AAA24"/>
+      <c r="AAB24"/>
+      <c r="AAC24"/>
+      <c r="AAD24"/>
+      <c r="AAE24"/>
+      <c r="AAF24"/>
+      <c r="AAG24"/>
+      <c r="AAH24"/>
+      <c r="AAI24"/>
+      <c r="AAJ24"/>
+      <c r="AAK24"/>
+      <c r="AAL24"/>
+      <c r="AAM24"/>
+      <c r="AAN24"/>
+      <c r="AAO24"/>
+      <c r="AAP24"/>
+      <c r="AAQ24"/>
+      <c r="AAR24"/>
+      <c r="AAS24"/>
+      <c r="AAT24"/>
+      <c r="AAU24"/>
+      <c r="AAV24"/>
+      <c r="AAW24"/>
+      <c r="AAX24"/>
+      <c r="AAY24"/>
+      <c r="AAZ24"/>
+      <c r="ABA24"/>
+      <c r="ABB24"/>
+      <c r="ABC24"/>
+      <c r="ABD24"/>
+      <c r="ABE24"/>
+      <c r="ABF24"/>
+      <c r="ABG24"/>
+      <c r="ABH24"/>
+      <c r="ABI24"/>
+      <c r="ABJ24"/>
+      <c r="ABK24"/>
+      <c r="ABL24"/>
+      <c r="ABM24"/>
+      <c r="ABN24"/>
+      <c r="ABO24"/>
+      <c r="ABP24"/>
+      <c r="ABQ24"/>
+      <c r="ABR24"/>
+      <c r="ABS24"/>
+      <c r="ABT24"/>
+      <c r="ABU24"/>
+      <c r="ABV24"/>
+      <c r="ABW24"/>
+      <c r="ABX24"/>
+      <c r="ABY24"/>
+      <c r="ABZ24"/>
+      <c r="ACA24"/>
+      <c r="ACB24"/>
+      <c r="ACC24"/>
+      <c r="ACD24"/>
+      <c r="ACE24"/>
+      <c r="ACF24"/>
+      <c r="ACG24"/>
+      <c r="ACH24"/>
+      <c r="ACI24"/>
+      <c r="ACJ24"/>
+      <c r="ACK24"/>
+      <c r="ACL24"/>
+      <c r="ACM24"/>
+      <c r="ACN24"/>
+      <c r="ACO24"/>
+      <c r="ACP24"/>
+      <c r="ACQ24"/>
+      <c r="ACR24"/>
+      <c r="ACS24"/>
+      <c r="ACT24"/>
+      <c r="ACU24"/>
+      <c r="ACV24"/>
+      <c r="ACW24"/>
+      <c r="ACX24"/>
+      <c r="ACY24"/>
+      <c r="ACZ24"/>
+      <c r="ADA24"/>
+      <c r="ADB24"/>
+      <c r="ADC24"/>
+      <c r="ADD24"/>
+      <c r="ADE24"/>
+      <c r="ADF24"/>
+      <c r="ADG24"/>
+      <c r="ADH24"/>
+      <c r="ADI24"/>
+      <c r="ADJ24"/>
+      <c r="ADK24"/>
+      <c r="ADL24"/>
+      <c r="ADM24"/>
+      <c r="ADN24"/>
+      <c r="ADO24"/>
+      <c r="ADP24"/>
+      <c r="ADQ24"/>
+      <c r="ADR24"/>
+      <c r="ADS24"/>
+      <c r="ADT24"/>
+      <c r="ADU24"/>
+      <c r="ADV24"/>
+      <c r="ADW24"/>
+      <c r="ADX24"/>
+      <c r="ADY24"/>
+      <c r="ADZ24"/>
+      <c r="AEA24"/>
+      <c r="AEB24"/>
+      <c r="AEC24"/>
+      <c r="AED24"/>
+      <c r="AEE24"/>
+      <c r="AEF24"/>
+      <c r="AEG24"/>
+      <c r="AEH24"/>
+      <c r="AEI24"/>
+      <c r="AEJ24"/>
+      <c r="AEK24"/>
+      <c r="AEL24"/>
+      <c r="AEM24"/>
+      <c r="AEN24"/>
+      <c r="AEO24"/>
+      <c r="AEP24"/>
+      <c r="AEQ24"/>
+      <c r="AER24"/>
+      <c r="AES24"/>
+      <c r="AET24"/>
+      <c r="AEU24"/>
+      <c r="AEV24"/>
+      <c r="AEW24"/>
+      <c r="AEX24"/>
+      <c r="AEY24"/>
+      <c r="AEZ24"/>
+      <c r="AFA24"/>
+      <c r="AFB24"/>
+      <c r="AFC24"/>
+      <c r="AFD24"/>
+      <c r="AFE24"/>
+      <c r="AFF24"/>
+      <c r="AFG24"/>
+      <c r="AFH24"/>
+      <c r="AFI24"/>
+      <c r="AFJ24"/>
+      <c r="AFK24"/>
+      <c r="AFL24"/>
+      <c r="AFM24"/>
+      <c r="AFN24"/>
+      <c r="AFO24"/>
+      <c r="AFP24"/>
+      <c r="AFQ24"/>
+      <c r="AFR24"/>
+      <c r="AFS24"/>
+      <c r="AFT24"/>
+      <c r="AFU24"/>
+      <c r="AFV24"/>
+      <c r="AFW24"/>
+      <c r="AFX24"/>
+      <c r="AFY24"/>
+      <c r="AFZ24"/>
+      <c r="AGA24"/>
+      <c r="AGB24"/>
+      <c r="AGC24"/>
+      <c r="AGD24"/>
+      <c r="AGE24"/>
+      <c r="AGF24"/>
+      <c r="AGG24"/>
+      <c r="AGH24"/>
+      <c r="AGI24"/>
+      <c r="AGJ24"/>
+      <c r="AGK24"/>
+      <c r="AGL24"/>
+      <c r="AGM24"/>
+      <c r="AGN24"/>
+      <c r="AGO24"/>
+      <c r="AGP24"/>
+      <c r="AGQ24"/>
+      <c r="AGR24"/>
+      <c r="AGS24"/>
+      <c r="AGT24"/>
+      <c r="AGU24"/>
+      <c r="AGV24"/>
+      <c r="AGW24"/>
+      <c r="AGX24"/>
+      <c r="AGY24"/>
+      <c r="AGZ24"/>
+      <c r="AHA24"/>
+      <c r="AHB24"/>
+      <c r="AHC24"/>
+      <c r="AHD24"/>
+      <c r="AHE24"/>
+      <c r="AHF24"/>
+      <c r="AHG24"/>
+      <c r="AHH24"/>
+      <c r="AHI24"/>
+      <c r="AHJ24"/>
+      <c r="AHK24"/>
+      <c r="AHL24"/>
+      <c r="AHM24"/>
+      <c r="AHN24"/>
+      <c r="AHO24"/>
+      <c r="AHP24"/>
+      <c r="AHQ24"/>
+      <c r="AHR24"/>
+      <c r="AHS24"/>
+      <c r="AHT24"/>
+      <c r="AHU24"/>
+      <c r="AHV24"/>
+      <c r="AHW24"/>
+      <c r="AHX24"/>
+      <c r="AHY24"/>
+      <c r="AHZ24"/>
+      <c r="AIA24"/>
+      <c r="AIB24"/>
+      <c r="AIC24"/>
+      <c r="AID24"/>
+      <c r="AIE24"/>
+      <c r="AIF24"/>
+      <c r="AIG24"/>
+      <c r="AIH24"/>
+      <c r="AII24"/>
+      <c r="AIJ24"/>
+      <c r="AIK24"/>
+      <c r="AIL24"/>
+      <c r="AIM24"/>
+      <c r="AIN24"/>
+      <c r="AIO24"/>
+      <c r="AIP24"/>
+      <c r="AIQ24"/>
+      <c r="AIR24"/>
+      <c r="AIS24"/>
+      <c r="AIT24"/>
+      <c r="AIU24"/>
+      <c r="AIV24"/>
+      <c r="AIW24"/>
+      <c r="AIX24"/>
+      <c r="AIY24"/>
+      <c r="AIZ24"/>
+      <c r="AJA24"/>
+      <c r="AJB24"/>
+      <c r="AJC24"/>
+      <c r="AJD24"/>
+      <c r="AJE24"/>
+      <c r="AJF24"/>
+      <c r="AJG24"/>
+      <c r="AJH24"/>
+      <c r="AJI24"/>
+      <c r="AJJ24"/>
+      <c r="AJK24"/>
+      <c r="AJL24"/>
+      <c r="AJM24"/>
+      <c r="AJN24"/>
+      <c r="AJO24"/>
+      <c r="AJP24"/>
+      <c r="AJQ24"/>
+      <c r="AJR24"/>
+      <c r="AJS24"/>
+      <c r="AJT24"/>
+      <c r="AJU24"/>
+      <c r="AJV24"/>
+      <c r="AJW24"/>
+      <c r="AJX24"/>
+      <c r="AJY24"/>
+      <c r="AJZ24"/>
+      <c r="AKA24"/>
+      <c r="AKB24"/>
+      <c r="AKC24"/>
+      <c r="AKD24"/>
+      <c r="AKE24"/>
+      <c r="AKF24"/>
+      <c r="AKG24"/>
+      <c r="AKH24"/>
+      <c r="AKI24"/>
+      <c r="AKJ24"/>
+      <c r="AKK24"/>
+      <c r="AKL24"/>
+      <c r="AKM24"/>
+      <c r="AKN24"/>
+      <c r="AKO24"/>
+      <c r="AKP24"/>
+      <c r="AKQ24"/>
+      <c r="AKR24"/>
+      <c r="AKS24"/>
+      <c r="AKT24"/>
+      <c r="AKU24"/>
+      <c r="AKV24"/>
+      <c r="AKW24"/>
+      <c r="AKX24"/>
+      <c r="AKY24"/>
+      <c r="AKZ24"/>
+      <c r="ALA24"/>
+      <c r="ALB24"/>
+      <c r="ALC24"/>
+      <c r="ALD24"/>
+      <c r="ALE24"/>
+      <c r="ALF24"/>
+      <c r="ALG24"/>
+      <c r="ALH24"/>
+      <c r="ALI24"/>
+      <c r="ALJ24"/>
+      <c r="ALK24"/>
+      <c r="ALL24"/>
+      <c r="ALM24"/>
+      <c r="ALN24"/>
+      <c r="ALO24"/>
+      <c r="ALP24"/>
+      <c r="ALQ24"/>
+      <c r="ALR24"/>
+      <c r="ALS24"/>
+      <c r="ALT24"/>
+      <c r="ALU24"/>
+      <c r="ALV24"/>
+      <c r="ALW24"/>
+      <c r="ALX24"/>
+      <c r="ALY24"/>
+      <c r="ALZ24"/>
+      <c r="AMA24"/>
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+      <c r="AMH24"/>
+      <c r="AMI24"/>
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" s="24" customFormat="1" thickBot="1">
+      <c r="A25" s="29" t="s">
+        <v>14</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
     </row>
-    <row r="25" spans="1:1024" s="26" customFormat="1" ht="13.5">
-      <c r="A25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="13" t="s">
+    <row r="26" spans="1:1024" s="24" customFormat="1" thickBot="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23"/>
+    </row>
+    <row r="27" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="23"/>
     </row>
-    <row r="26" spans="1:1024" s="26" customFormat="1" ht="13.5">
-      <c r="A26" s="14">
-        <v>8</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="17">
-        <v>42515</v>
-      </c>
-      <c r="F26" s="17">
-        <v>42515</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="25"/>
+    <row r="28" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="23"/>
     </row>
-    <row r="27" spans="1:1024" s="26" customFormat="1" ht="51">
-      <c r="A27" s="14">
-        <v>9</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="17">
-        <v>42515</v>
-      </c>
-      <c r="F27" s="17">
-        <v>42515</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="25"/>
+    <row r="29" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23"/>
     </row>
-    <row r="28" spans="1:1024" s="26" customFormat="1" ht="38.25">
-      <c r="A28" s="14">
-        <v>10</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="17">
-        <v>42486</v>
-      </c>
-      <c r="F28" s="17">
-        <v>42486</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="25"/>
+    <row r="30" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="23"/>
     </row>
-    <row r="29" spans="1:1024" s="26" customFormat="1" ht="38.25">
-      <c r="A29" s="14">
-        <v>11</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="17">
-        <v>42486</v>
-      </c>
-      <c r="F29" s="17">
-        <v>42486</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="25"/>
+    <row r="31" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="23"/>
     </row>
-    <row r="30" spans="1:1024" s="26" customFormat="1" ht="13.5">
-      <c r="A30" s="14">
-        <v>13</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="17">
-        <v>42516</v>
-      </c>
-      <c r="F30" s="17">
-        <v>42516</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="25"/>
+    <row r="32" spans="1:1024" s="24" customFormat="1" ht="13.5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="23"/>
     </row>
-    <row r="31" spans="1:1024" s="26" customFormat="1" ht="13.5">
-      <c r="A31" s="14">
-        <v>14</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="17">
-        <v>42486</v>
-      </c>
-      <c r="F31" s="17">
-        <v>42486</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="25"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="30"/>
+    <row r="36" spans="5:5">
+      <c r="E36" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A3:F3"/>
+  <mergeCells count="17">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
